--- a/Documentation/Journal-de-Travail_NademoYosef.xlsx
+++ b/Documentation/Journal-de-Travail_NademoYosef.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Passion_lecture_Mobile\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDCE646-A1CD-4FE7-B8E0-7E17AB9A807F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC64A49-C729-4ED9-B44B-DBE3BCAE7634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="29625" yWindow="495" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Rendre le travail effectue sur Github, et faire une release</t>
+  </si>
+  <si>
+    <t>Discussion, des taches du projet</t>
   </si>
 </sst>
 </file>
@@ -1082,13 +1085,13 @@
                   <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>0.13541666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2004,7 +2007,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2057,7 +2060,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 2 heurs 0 minutes</v>
+        <v>0 jours 5 heurs 4 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2072,15 +2075,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>120</v>
+        <v>305</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2251,15 +2254,23 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="46"/>
+        <v>13</v>
+      </c>
+      <c r="B12" s="46">
+        <v>45744</v>
+      </c>
       <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="36"/>
+      <c r="D12" s="48">
+        <v>20</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="55"/>
       <c r="M12" t="s">
         <v>7</v>
@@ -2272,15 +2283,25 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="str">
+      <c r="A13" s="16">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="36"/>
+        <v>13</v>
+      </c>
+      <c r="B13" s="50">
+        <v>45744</v>
+      </c>
+      <c r="C13" s="51">
+        <v>2</v>
+      </c>
+      <c r="D13" s="52">
+        <v>45</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>32</v>
+      </c>
       <c r="G13" s="56"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -2293,11 +2314,13 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="str">
+      <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="46"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="46">
+        <v>45744</v>
+      </c>
       <c r="C14" s="47"/>
       <c r="D14" s="48"/>
       <c r="E14" s="49"/>
@@ -2314,11 +2337,13 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="str">
+      <c r="A15" s="16">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="50"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="50">
+        <v>45744</v>
+      </c>
       <c r="C15" s="51"/>
       <c r="D15" s="52"/>
       <c r="E15" s="53"/>
@@ -8710,7 +8735,7 @@
       </c>
       <c r="B8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C8" s="28" t="str">
         <f>'Journal de travail'!M12</f>
@@ -8718,7 +8743,7 @@
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8742,11 +8767,11 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>'Journal de travail'!M14</f>
@@ -8754,7 +8779,7 @@
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0.13541666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8781,7 +8806,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.21180555555555552</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Documentation/Journal-de-Travail_NademoYosef.xlsx
+++ b/Documentation/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Passion_lecture_Mobile\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC64A49-C729-4ED9-B44B-DBE3BCAE7634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46B6A86-603A-4638-AC02-029D29379C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="29625" yWindow="495" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>Discussion, des taches du projet</t>
+  </si>
+  <si>
+    <t>Created maquette(design + prototype)</t>
+  </si>
+  <si>
+    <t>tous les écrans, j'ai écrit la logique, que j'implémenterai plus tard ; j'ai créé la logique pour le bouton retour, je l'ai implémentée ; j'ai fait des routes pour les écrans ; [AU TOTAL] j'ai fait une bonne base de projet et j'ai implémenté la logique retour.</t>
+  </si>
+  <si>
+    <t>JDT GitHub(Commits + release)</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1085,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1091,10 +1100,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13541666666666666</c:v>
+                  <c:v>0.17708333333333334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2007,7 +2016,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2060,7 +2069,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 5 heurs 4 minutes</v>
+        <v>0 jours 7 heurs 40 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2075,15 +2084,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>305</v>
+        <v>460</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2316,15 +2325,21 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="46">
-        <v>45744</v>
-      </c>
-      <c r="C14" s="47"/>
+        <v>45751</v>
+      </c>
+      <c r="C14" s="47">
+        <v>1</v>
+      </c>
       <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>35</v>
+      </c>
       <c r="G14" s="55"/>
       <c r="M14" t="s">
         <v>21</v>
@@ -2336,18 +2351,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="50">
-        <v>45744</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="36"/>
+        <v>45751</v>
+      </c>
+      <c r="C15" s="51">
+        <v>1</v>
+      </c>
+      <c r="D15" s="52">
+        <v>20</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G15" s="56"/>
       <c r="M15" t="s">
         <v>22</v>
@@ -2360,15 +2383,23 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="str">
+      <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="46"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="46">
+        <v>45751</v>
+      </c>
       <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="36"/>
+      <c r="D16" s="48">
+        <v>15</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>37</v>
+      </c>
       <c r="G16" s="55"/>
       <c r="O16">
         <v>40</v>
@@ -8677,11 +8708,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8689,7 +8720,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8767,7 +8798,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
@@ -8779,7 +8810,7 @@
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
-        <v>0.13541666666666666</v>
+        <v>0.17708333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8789,7 +8820,7 @@
       </c>
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C11" s="39" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8797,7 +8828,7 @@
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8806,7 +8837,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.21180555555555552</v>
+        <v>0.31944444444444448</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9043,6 +9074,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9051,15 +9091,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9082,6 +9113,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9090,12 +9129,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/Journal-de-Travail_NademoYosef.xlsx
+++ b/Documentation/Journal-de-Travail_NademoYosef.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Passion_lecture_Mobile\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46B6A86-603A-4638-AC02-029D29379C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F412E4E8-3E34-42F9-A065-5153CDE680C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="29625" yWindow="495" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="4830" yWindow="960" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>JDT GitHub(Commits + release)</t>
+  </si>
+  <si>
+    <t>… discution avec classe et professeur</t>
+  </si>
+  <si>
+    <t>Modiffication des modeles d'application mobile, ajout des labels + export de nouvelle maquette</t>
+  </si>
+  <si>
+    <t>devlopement du code pour navigation,redirection avec des bouttons, Creation des styles:Label les buttons plus aproche au figma maquette</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1094,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>9.7222222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1094,13 +1103,13 @@
                   <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5555555555555552E-2</c:v>
+                  <c:v>6.9444444444444448E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17708333333333334</c:v>
+                  <c:v>0.18402777777777779</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.0416666666666666E-2</c:v>
@@ -2015,8 +2024,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2069,7 +2078,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 7 heurs 40 minutes</v>
+        <v>0 jours 9 heurs 9 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2084,15 +2093,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2406,45 +2415,69 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="str">
+      <c r="A17" s="16">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="50"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="50">
+        <v>45758</v>
+      </c>
       <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="36"/>
+      <c r="D17" s="52">
+        <v>20</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>38</v>
+      </c>
       <c r="G17" s="56"/>
       <c r="O17">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="str">
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="46">
+        <v>45758</v>
+      </c>
+      <c r="C18" s="47">
+        <v>1</v>
+      </c>
       <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>40</v>
+      </c>
       <c r="G18" s="55"/>
       <c r="O18">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="str">
+      <c r="A19" s="16">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="50"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="50">
+        <v>45758</v>
+      </c>
       <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="36"/>
+      <c r="D19" s="52">
+        <v>10</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="G19" s="56"/>
       <c r="O19">
         <v>55</v>
@@ -8708,7 +8741,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -8720,7 +8753,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>5.5555555555555552E-2</v>
+        <v>9.7222222222222224E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8766,7 +8799,7 @@
       </c>
       <c r="B8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$D$7:$D$532)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C8" s="28" t="str">
         <f>'Journal de travail'!M12</f>
@@ -8774,7 +8807,7 @@
       </c>
       <c r="D8" s="33">
         <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
+        <v>6.9444444444444448E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8802,7 +8835,7 @@
       </c>
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C10" s="37" t="str">
         <f>'Journal de travail'!M14</f>
@@ -8810,7 +8843,7 @@
       </c>
       <c r="D10" s="33">
         <f t="shared" si="0"/>
-        <v>0.17708333333333334</v>
+        <v>0.18402777777777779</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8837,7 +8870,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.31944444444444448</v>
+        <v>0.38194444444444448</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Documentation/Journal-de-Travail_NademoYosef.xlsx
+++ b/Documentation/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Passion_lecture_Mobile\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F412E4E8-3E34-42F9-A065-5153CDE680C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850BCDE3-5A34-4CD6-B176-0AE4D64526B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="4830" yWindow="960" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -163,7 +163,10 @@
     <t>Modiffication des modeles d'application mobile, ajout des labels + export de nouvelle maquette</t>
   </si>
   <si>
-    <t>devlopement du code pour navigation,redirection avec des bouttons, Creation des styles:Label les buttons plus aproche au figma maquette</t>
+    <t>devlopement du code pour navigation,redirection avec des bouttons, Creation des styles:Label les buttons plus aproche au figma maquette(main)</t>
+  </si>
+  <si>
+    <t>devlopement du code pour navigation,redirection avec des bouttons, Creation des styles:Label les buttons plus aproche au figma maquette. Faire ca pour chaque ecran(Tags,Importation), création des Styles pour Import et Tags. Modification des XAML pour Tags et Import</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1097,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.7222222222222224E-2</c:v>
+                  <c:v>0.1388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2024,8 +2027,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2078,7 +2081,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 9 heurs 9 minutes</v>
+        <v>0 jours 10 heurs 9 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2093,7 +2096,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -2101,7 +2104,7 @@
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2483,16 +2486,24 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="str">
+    <row r="20" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
+        <v>15</v>
+      </c>
+      <c r="B20" s="46">
+        <v>45758</v>
+      </c>
+      <c r="C20" s="47">
+        <v>1</v>
+      </c>
       <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="36"/>
+      <c r="E20" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>41</v>
+      </c>
       <c r="G20" s="55"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -8741,7 +8752,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -8753,7 +8764,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>9.7222222222222224E-2</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8870,7 +8881,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.38194444444444448</v>
+        <v>0.42361111111111116</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Documentation/Journal-de-Travail_NademoYosef.xlsx
+++ b/Documentation/Journal-de-Travail_NademoYosef.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Passion_lecture_Mobile\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850BCDE3-5A34-4CD6-B176-0AE4D64526B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6670359-93CE-4914-9D1F-832C6946F2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="960" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="3210" yWindow="0" windowWidth="24840" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Autre</t>
   </si>
   <si>
-    <t>Nom Prénom</t>
-  </si>
-  <si>
     <t>P_App - 335 - Passion Lecture</t>
   </si>
   <si>
@@ -167,6 +164,15 @@
   </si>
   <si>
     <t>devlopement du code pour navigation,redirection avec des bouttons, Creation des styles:Label les buttons plus aproche au figma maquette. Faire ca pour chaque ecran(Tags,Importation), création des Styles pour Import et Tags. Modification des XAML pour Tags et Import</t>
+  </si>
+  <si>
+    <t>Nademo Yosef</t>
+  </si>
+  <si>
+    <t>debuggin , le projet n'était pas lançable même après le débogage et la reconstruction de l'ensemble du projet, il ne s'est pas lancé normalement, ce n'est pas de ma faute, mais il y avait des erreurs de compilation</t>
+  </si>
+  <si>
+    <t>rebuilding du projet</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1103,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1388888888888889</c:v>
+                  <c:v>0.15972222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2026,9 +2032,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2064,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D2" s="57"/>
       <c r="E2" s="57"/>
@@ -2072,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
@@ -2081,7 +2087,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 10 heurs 9 minutes</v>
+        <v>0 jours 10 heurs 40 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2089,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
@@ -2100,11 +2106,11 @@
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2123,19 +2129,19 @@
         <v>12</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2154,7 +2160,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="54"/>
     </row>
@@ -2174,7 +2180,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="55"/>
       <c r="M8" t="s">
@@ -2203,7 +2209,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="56"/>
       <c r="M9" t="s">
@@ -2232,7 +2238,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="55"/>
       <c r="M10" t="s">
@@ -2261,7 +2267,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="56"/>
       <c r="M11" t="s">
@@ -2290,7 +2296,7 @@
         <v>7</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="55"/>
       <c r="M12" t="s">
@@ -2321,7 +2327,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="56"/>
       <c r="M13" t="s">
@@ -2350,7 +2356,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="55"/>
       <c r="M14" t="s">
@@ -2381,7 +2387,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="56"/>
       <c r="M15" t="s">
@@ -2410,7 +2416,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="55"/>
       <c r="O16">
@@ -2433,7 +2439,7 @@
         <v>7</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="56"/>
       <c r="O17">
@@ -2456,7 +2462,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="55"/>
       <c r="O18">
@@ -2479,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="56"/>
       <c r="O19">
@@ -2502,21 +2508,31 @@
         <v>4</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="str">
+    <row r="21" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v/>
-      </c>
-      <c r="B21" s="50"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="50">
+        <v>45779</v>
+      </c>
       <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="56"/>
+      <c r="D21" s="52">
+        <v>30</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="56" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
@@ -8756,7 +8772,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8764,7 +8780,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.1388888888888889</v>
+        <v>0.15972222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8881,7 +8897,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.42361111111111116</v>
+        <v>0.44444444444444448</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9118,15 +9134,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9135,6 +9142,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9157,14 +9173,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9173,4 +9181,12 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/Journal-de-Travail_NademoYosef.xlsx
+++ b/Documentation/Journal-de-Travail_NademoYosef.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Passion_lecture_Mobile\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6670359-93CE-4914-9D1F-832C6946F2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC3F3FA-6F9A-425C-9C53-9C41A5C21071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="0" windowWidth="24840" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>rebuilding du projet</t>
+  </si>
+  <si>
+    <t>implementation du backend + connexion avec DB + appmobile(en utilisant le guide)</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1106,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15972222222222221</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2032,9 +2035,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2087,7 +2090,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 10 heurs 40 minutes</v>
+        <v>0 jours 12 heurs 9 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2102,15 +2105,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2535,15 +2538,25 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="str">
+      <c r="A22" s="8">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v/>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="36"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="46">
+        <v>45779</v>
+      </c>
+      <c r="C22" s="47">
+        <v>1</v>
+      </c>
+      <c r="D22" s="48">
+        <v>30</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -8768,11 +8781,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8780,7 +8793,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.15972222222222221</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8897,7 +8910,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.44444444444444448</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Documentation/Journal-de-Travail_NademoYosef.xlsx
+++ b/Documentation/Journal-de-Travail_NademoYosef.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Passion_lecture_Mobile\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aca75c2ab181ca0c/Документи/GitHub/Passion_lecture_Mobile/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC3F3FA-6F9A-425C-9C53-9C41A5C21071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{2FC3F3FA-6F9A-425C-9C53-9C41A5C21071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF149496-7E5B-4CD9-81F5-B1FEC5EAA1BC}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="9408" yWindow="0" windowWidth="13632" windowHeight="12336" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -176,6 +176,24 @@
   </si>
   <si>
     <t>implementation du backend + connexion avec DB + appmobile(en utilisant le guide)</t>
+  </si>
+  <si>
+    <t>deckerization (creation des containers pour backend, DB); configuration de init.sql (creatino de DB , creation d'une table, commandes d'insertion)</t>
+  </si>
+  <si>
+    <t>.yml .deckerfile init.sql</t>
+  </si>
+  <si>
+    <t>implementation du backend + connexion avec DB + appmobile(en utilisant le guide)+ debugging; Methode pour importer des livres app-api-db</t>
+  </si>
+  <si>
+    <t>Methode pour importer des livres app-api-db</t>
+  </si>
+  <si>
+    <t>creation de model + modifictaion ; modification + Combiner l'initialisation de la base de données avec le démarrage de l'application dans une fonction asynchrone (app)</t>
+  </si>
+  <si>
+    <t>app.listen(port, async () =&gt; {}</t>
   </si>
 </sst>
 </file>
@@ -502,6 +520,80 @@
   <dxfs count="17">
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -672,80 +764,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -768,7 +786,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -835,7 +853,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1106,7 +1124,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.34722222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1829,19 +1847,23 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2035,29 +2057,29 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="83.5" customWidth="1"/>
-    <col min="7" max="7" width="72.125" customWidth="1"/>
-    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.09765625" customWidth="1"/>
+    <col min="10" max="10" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.09765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="7.5" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -2068,7 +2090,7 @@
       </c>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2084,13 +2106,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 12 heurs 9 minutes</v>
+        <v>0 jours 15 heurs 9 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2101,30 +2123,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="23.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>730</v>
+        <v>910</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C5" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="58"/>
     </row>
-    <row r="6" spans="1:15" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
@@ -2147,7 +2169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
         <v>12</v>
@@ -2167,7 +2189,7 @@
       </c>
       <c r="G7" s="54"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
         <v>12</v>
@@ -2196,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
         <v>12</v>
@@ -2225,7 +2247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>12</v>
@@ -2254,7 +2276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
         <v>12</v>
@@ -2283,7 +2305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
         <v>13</v>
@@ -2312,7 +2334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
         <v>13</v>
@@ -2343,7 +2365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
         <v>14</v>
@@ -2372,7 +2394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
         <v>14</v>
@@ -2403,7 +2425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
         <v>14</v>
@@ -2426,7 +2448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v>15</v>
@@ -2449,7 +2471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
         <v>15</v>
@@ -2472,7 +2494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
         <v>15</v>
@@ -2495,7 +2517,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
         <v>15</v>
@@ -2515,7 +2537,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
         <v>18</v>
@@ -2537,7 +2559,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
         <v>18</v>
@@ -2559,43 +2581,75 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="str">
+    <row r="23" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
-        <v/>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="56"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="str">
+        <v>19</v>
+      </c>
+      <c r="B23" s="50">
+        <v>45786</v>
+      </c>
+      <c r="C23" s="51">
+        <v>1</v>
+      </c>
+      <c r="D23" s="52">
+        <v>30</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="46"/>
+        <v>19</v>
+      </c>
+      <c r="B24" s="46">
+        <v>45786</v>
+      </c>
       <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="str">
+      <c r="D24" s="48">
+        <v>50</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="50"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="50">
+        <v>45786</v>
+      </c>
       <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="56"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="52">
+        <v>40</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="str">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
         <v/>
@@ -2607,7 +2661,7 @@
       <c r="F26" s="36"/>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="str">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
         <v/>
@@ -2619,7 +2673,7 @@
       <c r="F27" s="36"/>
       <c r="G27" s="56"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="str">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
         <v/>
@@ -2631,7 +2685,7 @@
       <c r="F28" s="35"/>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="str">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
         <v/>
@@ -2643,7 +2697,7 @@
       <c r="F29" s="35"/>
       <c r="G29" s="56"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="str">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
         <v/>
@@ -2655,7 +2709,7 @@
       <c r="F30" s="36"/>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="str">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
         <v/>
@@ -2667,7 +2721,7 @@
       <c r="F31" s="35"/>
       <c r="G31" s="56"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
         <v/>
@@ -2679,7 +2733,7 @@
       <c r="F32" s="36"/>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="str">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
         <v/>
@@ -2691,7 +2745,7 @@
       <c r="F33" s="35"/>
       <c r="G33" s="56"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="str">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
         <v/>
@@ -2703,7 +2757,7 @@
       <c r="F34" s="35"/>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="str">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
         <v/>
@@ -2715,7 +2769,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="56"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="str">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
         <v/>
@@ -2727,7 +2781,7 @@
       <c r="F36" s="35"/>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="str">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
         <v/>
@@ -2739,7 +2793,7 @@
       <c r="F37" s="35"/>
       <c r="G37" s="56"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="str">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
         <v/>
@@ -2751,7 +2805,7 @@
       <c r="F38" s="35"/>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
         <v/>
@@ -2763,7 +2817,7 @@
       <c r="F39" s="35"/>
       <c r="G39" s="56"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
         <v/>
@@ -2775,7 +2829,7 @@
       <c r="F40" s="35"/>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
         <v/>
@@ -2787,7 +2841,7 @@
       <c r="F41" s="35"/>
       <c r="G41" s="56"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
         <v/>
@@ -2799,7 +2853,7 @@
       <c r="F42" s="35"/>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
         <v/>
@@ -2811,7 +2865,7 @@
       <c r="F43" s="35"/>
       <c r="G43" s="56"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
         <v/>
@@ -2823,7 +2877,7 @@
       <c r="F44" s="35"/>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
         <v/>
@@ -2835,7 +2889,7 @@
       <c r="F45" s="35"/>
       <c r="G45" s="56"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
         <v/>
@@ -2847,7 +2901,7 @@
       <c r="F46" s="35"/>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
         <v/>
@@ -2859,7 +2913,7 @@
       <c r="F47" s="35"/>
       <c r="G47" s="56"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
         <v/>
@@ -2871,7 +2925,7 @@
       <c r="F48" s="35"/>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
         <v/>
@@ -2883,7 +2937,7 @@
       <c r="F49" s="35"/>
       <c r="G49" s="56"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
         <v/>
@@ -2895,7 +2949,7 @@
       <c r="F50" s="35"/>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
         <v/>
@@ -2907,7 +2961,7 @@
       <c r="F51" s="35"/>
       <c r="G51" s="56"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
         <v/>
@@ -2919,7 +2973,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
         <v/>
@@ -2931,7 +2985,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="56"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
         <v/>
@@ -2943,7 +2997,7 @@
       <c r="F54" s="35"/>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
         <v/>
@@ -2955,7 +3009,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="56"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
         <v/>
@@ -2967,7 +3021,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
         <v/>
@@ -2979,7 +3033,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="56"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
         <v/>
@@ -2991,7 +3045,7 @@
       <c r="F58" s="15"/>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
         <v/>
@@ -3003,7 +3057,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="56"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
         <v/>
@@ -3015,7 +3069,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
         <v/>
@@ -3027,7 +3081,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="56"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
         <v/>
@@ -3039,7 +3093,7 @@
       <c r="F62" s="15"/>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
         <v/>
@@ -3051,7 +3105,7 @@
       <c r="F63" s="17"/>
       <c r="G63" s="56"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
         <v/>
@@ -3063,7 +3117,7 @@
       <c r="F64" s="15"/>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
         <v/>
@@ -3075,7 +3129,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="56"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
         <v/>
@@ -3087,7 +3141,7 @@
       <c r="F66" s="15"/>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
         <v/>
@@ -3099,7 +3153,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="56"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
         <v/>
@@ -3111,7 +3165,7 @@
       <c r="F68" s="15"/>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
         <v/>
@@ -3123,7 +3177,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="56"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
         <v/>
@@ -3135,7 +3189,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
         <v/>
@@ -3147,7 +3201,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="56"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
         <v/>
@@ -3159,7 +3213,7 @@
       <c r="F72" s="15"/>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
         <v/>
@@ -3171,7 +3225,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="56"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
         <v/>
@@ -3183,7 +3237,7 @@
       <c r="F74" s="15"/>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
@@ -3195,7 +3249,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="56"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
@@ -3207,7 +3261,7 @@
       <c r="F76" s="15"/>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
@@ -3219,7 +3273,7 @@
       <c r="F77" s="17"/>
       <c r="G77" s="56"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
@@ -3231,7 +3285,7 @@
       <c r="F78" s="15"/>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
@@ -3243,7 +3297,7 @@
       <c r="F79" s="17"/>
       <c r="G79" s="56"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
@@ -3255,7 +3309,7 @@
       <c r="F80" s="15"/>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="16" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
@@ -3267,7 +3321,7 @@
       <c r="F81" s="17"/>
       <c r="G81" s="56"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
@@ -3279,7 +3333,7 @@
       <c r="F82" s="15"/>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="16" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
@@ -3291,7 +3345,7 @@
       <c r="F83" s="17"/>
       <c r="G83" s="56"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
@@ -3303,7 +3357,7 @@
       <c r="F84" s="15"/>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="16" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
@@ -3315,7 +3369,7 @@
       <c r="F85" s="17"/>
       <c r="G85" s="56"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
@@ -3327,7 +3381,7 @@
       <c r="F86" s="15"/>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="16" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
@@ -3339,7 +3393,7 @@
       <c r="F87" s="17"/>
       <c r="G87" s="56"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
@@ -3351,7 +3405,7 @@
       <c r="F88" s="15"/>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="16" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
@@ -3363,7 +3417,7 @@
       <c r="F89" s="17"/>
       <c r="G89" s="56"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
@@ -3375,7 +3429,7 @@
       <c r="F90" s="15"/>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="16" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
@@ -3387,7 +3441,7 @@
       <c r="F91" s="17"/>
       <c r="G91" s="56"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
@@ -3399,7 +3453,7 @@
       <c r="F92" s="15"/>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
@@ -3411,7 +3465,7 @@
       <c r="F93" s="17"/>
       <c r="G93" s="56"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
@@ -3423,7 +3477,7 @@
       <c r="F94" s="15"/>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
@@ -3435,7 +3489,7 @@
       <c r="F95" s="17"/>
       <c r="G95" s="56"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
@@ -3447,7 +3501,7 @@
       <c r="F96" s="15"/>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="16" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
@@ -3459,7 +3513,7 @@
       <c r="F97" s="17"/>
       <c r="G97" s="56"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
@@ -3471,7 +3525,7 @@
       <c r="F98" s="15"/>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="16" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
@@ -3483,7 +3537,7 @@
       <c r="F99" s="17"/>
       <c r="G99" s="56"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
@@ -3495,7 +3549,7 @@
       <c r="F100" s="15"/>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="16" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
@@ -3507,7 +3561,7 @@
       <c r="F101" s="17"/>
       <c r="G101" s="56"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
@@ -3519,7 +3573,7 @@
       <c r="F102" s="15"/>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="16" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
@@ -3531,7 +3585,7 @@
       <c r="F103" s="17"/>
       <c r="G103" s="56"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
@@ -3543,7 +3597,7 @@
       <c r="F104" s="15"/>
       <c r="G104" s="55"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="16" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
@@ -3555,7 +3609,7 @@
       <c r="F105" s="17"/>
       <c r="G105" s="56"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
@@ -3567,7 +3621,7 @@
       <c r="F106" s="15"/>
       <c r="G106" s="55"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="16" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
@@ -3579,7 +3633,7 @@
       <c r="F107" s="17"/>
       <c r="G107" s="56"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
@@ -3591,7 +3645,7 @@
       <c r="F108" s="15"/>
       <c r="G108" s="55"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="16" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
@@ -3603,7 +3657,7 @@
       <c r="F109" s="17"/>
       <c r="G109" s="56"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
@@ -3615,7 +3669,7 @@
       <c r="F110" s="15"/>
       <c r="G110" s="55"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="16" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
@@ -3627,7 +3681,7 @@
       <c r="F111" s="17"/>
       <c r="G111" s="56"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
@@ -3639,7 +3693,7 @@
       <c r="F112" s="15"/>
       <c r="G112" s="55"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="16" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
@@ -3651,7 +3705,7 @@
       <c r="F113" s="17"/>
       <c r="G113" s="56"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
@@ -3663,7 +3717,7 @@
       <c r="F114" s="15"/>
       <c r="G114" s="55"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="16" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
@@ -3675,7 +3729,7 @@
       <c r="F115" s="17"/>
       <c r="G115" s="56"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
@@ -3687,7 +3741,7 @@
       <c r="F116" s="15"/>
       <c r="G116" s="55"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
@@ -3699,7 +3753,7 @@
       <c r="F117" s="17"/>
       <c r="G117" s="56"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
@@ -3711,7 +3765,7 @@
       <c r="F118" s="15"/>
       <c r="G118" s="55"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="16" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
@@ -3723,7 +3777,7 @@
       <c r="F119" s="17"/>
       <c r="G119" s="56"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
@@ -3735,7 +3789,7 @@
       <c r="F120" s="15"/>
       <c r="G120" s="55"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="16" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
@@ -3747,7 +3801,7 @@
       <c r="F121" s="17"/>
       <c r="G121" s="56"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
@@ -3759,7 +3813,7 @@
       <c r="F122" s="15"/>
       <c r="G122" s="55"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="16" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
@@ -3771,7 +3825,7 @@
       <c r="F123" s="17"/>
       <c r="G123" s="56"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
@@ -3783,7 +3837,7 @@
       <c r="F124" s="15"/>
       <c r="G124" s="55"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="16" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
@@ -3795,7 +3849,7 @@
       <c r="F125" s="17"/>
       <c r="G125" s="56"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
@@ -3807,7 +3861,7 @@
       <c r="F126" s="15"/>
       <c r="G126" s="55"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="16" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
@@ -3819,7 +3873,7 @@
       <c r="F127" s="17"/>
       <c r="G127" s="56"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
@@ -3831,7 +3885,7 @@
       <c r="F128" s="15"/>
       <c r="G128" s="55"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="16" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
@@ -3843,7 +3897,7 @@
       <c r="F129" s="17"/>
       <c r="G129" s="56"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
@@ -3855,7 +3909,7 @@
       <c r="F130" s="15"/>
       <c r="G130" s="55"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="16" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
@@ -3867,7 +3921,7 @@
       <c r="F131" s="17"/>
       <c r="G131" s="56"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
@@ -3879,7 +3933,7 @@
       <c r="F132" s="15"/>
       <c r="G132" s="55"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="16" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
@@ -3891,7 +3945,7 @@
       <c r="F133" s="17"/>
       <c r="G133" s="56"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
@@ -3903,7 +3957,7 @@
       <c r="F134" s="15"/>
       <c r="G134" s="55"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="16" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
@@ -3915,7 +3969,7 @@
       <c r="F135" s="17"/>
       <c r="G135" s="56"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
@@ -3927,7 +3981,7 @@
       <c r="F136" s="15"/>
       <c r="G136" s="55"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="16" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
@@ -3939,7 +3993,7 @@
       <c r="F137" s="17"/>
       <c r="G137" s="56"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
@@ -3951,7 +4005,7 @@
       <c r="F138" s="15"/>
       <c r="G138" s="55"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="16" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
@@ -3963,7 +4017,7 @@
       <c r="F139" s="17"/>
       <c r="G139" s="56"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
@@ -3975,7 +4029,7 @@
       <c r="F140" s="15"/>
       <c r="G140" s="55"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="16" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
@@ -3987,7 +4041,7 @@
       <c r="F141" s="17"/>
       <c r="G141" s="56"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
@@ -3999,7 +4053,7 @@
       <c r="F142" s="15"/>
       <c r="G142" s="55"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="16" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
@@ -4011,7 +4065,7 @@
       <c r="F143" s="17"/>
       <c r="G143" s="56"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
@@ -4023,7 +4077,7 @@
       <c r="F144" s="15"/>
       <c r="G144" s="55"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="16" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
@@ -4035,7 +4089,7 @@
       <c r="F145" s="17"/>
       <c r="G145" s="56"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
@@ -4047,7 +4101,7 @@
       <c r="F146" s="15"/>
       <c r="G146" s="55"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="16" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
@@ -4059,7 +4113,7 @@
       <c r="F147" s="17"/>
       <c r="G147" s="56"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
@@ -4071,7 +4125,7 @@
       <c r="F148" s="15"/>
       <c r="G148" s="55"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="16" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
@@ -4083,7 +4137,7 @@
       <c r="F149" s="17"/>
       <c r="G149" s="56"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
@@ -4095,7 +4149,7 @@
       <c r="F150" s="15"/>
       <c r="G150" s="55"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="16" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
@@ -4107,7 +4161,7 @@
       <c r="F151" s="17"/>
       <c r="G151" s="56"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
@@ -4119,7 +4173,7 @@
       <c r="F152" s="15"/>
       <c r="G152" s="55"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="16" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
@@ -4131,7 +4185,7 @@
       <c r="F153" s="17"/>
       <c r="G153" s="56"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
@@ -4143,7 +4197,7 @@
       <c r="F154" s="15"/>
       <c r="G154" s="55"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="16" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
@@ -4155,7 +4209,7 @@
       <c r="F155" s="17"/>
       <c r="G155" s="56"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
@@ -4167,7 +4221,7 @@
       <c r="F156" s="15"/>
       <c r="G156" s="55"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="16" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
@@ -4179,7 +4233,7 @@
       <c r="F157" s="17"/>
       <c r="G157" s="56"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
@@ -4191,7 +4245,7 @@
       <c r="F158" s="15"/>
       <c r="G158" s="55"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="16" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
@@ -4203,7 +4257,7 @@
       <c r="F159" s="17"/>
       <c r="G159" s="56"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
@@ -4215,7 +4269,7 @@
       <c r="F160" s="15"/>
       <c r="G160" s="55"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="16" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
@@ -4227,7 +4281,7 @@
       <c r="F161" s="17"/>
       <c r="G161" s="56"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
@@ -4239,7 +4293,7 @@
       <c r="F162" s="15"/>
       <c r="G162" s="55"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="16" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
@@ -4251,7 +4305,7 @@
       <c r="F163" s="17"/>
       <c r="G163" s="56"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
@@ -4263,7 +4317,7 @@
       <c r="F164" s="15"/>
       <c r="G164" s="55"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="16" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
@@ -4275,7 +4329,7 @@
       <c r="F165" s="17"/>
       <c r="G165" s="56"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
@@ -4287,7 +4341,7 @@
       <c r="F166" s="15"/>
       <c r="G166" s="55"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="16" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
@@ -4299,7 +4353,7 @@
       <c r="F167" s="17"/>
       <c r="G167" s="56"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
@@ -4311,7 +4365,7 @@
       <c r="F168" s="15"/>
       <c r="G168" s="55"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="16" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
@@ -4323,7 +4377,7 @@
       <c r="F169" s="17"/>
       <c r="G169" s="56"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
@@ -4335,7 +4389,7 @@
       <c r="F170" s="15"/>
       <c r="G170" s="55"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="16" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
@@ -4347,7 +4401,7 @@
       <c r="F171" s="17"/>
       <c r="G171" s="56"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
@@ -4359,7 +4413,7 @@
       <c r="F172" s="15"/>
       <c r="G172" s="55"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="16" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
@@ -4371,7 +4425,7 @@
       <c r="F173" s="17"/>
       <c r="G173" s="56"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
@@ -4383,7 +4437,7 @@
       <c r="F174" s="15"/>
       <c r="G174" s="55"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="16" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
@@ -4395,7 +4449,7 @@
       <c r="F175" s="17"/>
       <c r="G175" s="56"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
@@ -4407,7 +4461,7 @@
       <c r="F176" s="15"/>
       <c r="G176" s="55"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="16" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
@@ -4419,7 +4473,7 @@
       <c r="F177" s="17"/>
       <c r="G177" s="56"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
@@ -4431,7 +4485,7 @@
       <c r="F178" s="15"/>
       <c r="G178" s="55"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="16" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
@@ -4443,7 +4497,7 @@
       <c r="F179" s="17"/>
       <c r="G179" s="56"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
@@ -4455,7 +4509,7 @@
       <c r="F180" s="15"/>
       <c r="G180" s="55"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="16" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
@@ -4467,7 +4521,7 @@
       <c r="F181" s="17"/>
       <c r="G181" s="56"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
@@ -4479,7 +4533,7 @@
       <c r="F182" s="15"/>
       <c r="G182" s="55"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="16" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
@@ -4491,7 +4545,7 @@
       <c r="F183" s="17"/>
       <c r="G183" s="56"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
@@ -4503,7 +4557,7 @@
       <c r="F184" s="15"/>
       <c r="G184" s="55"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="16" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
@@ -4515,7 +4569,7 @@
       <c r="F185" s="17"/>
       <c r="G185" s="56"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
@@ -4527,7 +4581,7 @@
       <c r="F186" s="15"/>
       <c r="G186" s="55"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="16" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
@@ -4539,7 +4593,7 @@
       <c r="F187" s="17"/>
       <c r="G187" s="56"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
@@ -4551,7 +4605,7 @@
       <c r="F188" s="15"/>
       <c r="G188" s="55"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="16" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
@@ -4563,7 +4617,7 @@
       <c r="F189" s="17"/>
       <c r="G189" s="56"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
@@ -4575,7 +4629,7 @@
       <c r="F190" s="15"/>
       <c r="G190" s="55"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="16" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
@@ -4587,7 +4641,7 @@
       <c r="F191" s="17"/>
       <c r="G191" s="56"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
@@ -4599,7 +4653,7 @@
       <c r="F192" s="15"/>
       <c r="G192" s="55"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="16" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
@@ -4611,7 +4665,7 @@
       <c r="F193" s="17"/>
       <c r="G193" s="56"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
@@ -4623,7 +4677,7 @@
       <c r="F194" s="15"/>
       <c r="G194" s="55"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="16" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
@@ -4635,7 +4689,7 @@
       <c r="F195" s="17"/>
       <c r="G195" s="56"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
@@ -4647,7 +4701,7 @@
       <c r="F196" s="15"/>
       <c r="G196" s="55"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="16" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
@@ -4659,7 +4713,7 @@
       <c r="F197" s="17"/>
       <c r="G197" s="56"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
@@ -4671,7 +4725,7 @@
       <c r="F198" s="15"/>
       <c r="G198" s="55"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="16" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
@@ -4683,7 +4737,7 @@
       <c r="F199" s="17"/>
       <c r="G199" s="56"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="8" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
@@ -4695,7 +4749,7 @@
       <c r="F200" s="15"/>
       <c r="G200" s="55"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="16" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
@@ -4707,7 +4761,7 @@
       <c r="F201" s="17"/>
       <c r="G201" s="56"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
@@ -4719,7 +4773,7 @@
       <c r="F202" s="15"/>
       <c r="G202" s="55"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="16" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
@@ -4731,7 +4785,7 @@
       <c r="F203" s="17"/>
       <c r="G203" s="56"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="8" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
@@ -4743,7 +4797,7 @@
       <c r="F204" s="15"/>
       <c r="G204" s="55"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="16" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
@@ -4755,7 +4809,7 @@
       <c r="F205" s="17"/>
       <c r="G205" s="56"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="8" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
@@ -4767,7 +4821,7 @@
       <c r="F206" s="15"/>
       <c r="G206" s="55"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="16" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
@@ -4779,7 +4833,7 @@
       <c r="F207" s="17"/>
       <c r="G207" s="56"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="8" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
@@ -4791,7 +4845,7 @@
       <c r="F208" s="15"/>
       <c r="G208" s="55"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="16" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
@@ -4803,7 +4857,7 @@
       <c r="F209" s="17"/>
       <c r="G209" s="56"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="8" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
@@ -4815,7 +4869,7 @@
       <c r="F210" s="15"/>
       <c r="G210" s="55"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="16" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
@@ -4827,7 +4881,7 @@
       <c r="F211" s="17"/>
       <c r="G211" s="56"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
@@ -4839,7 +4893,7 @@
       <c r="F212" s="15"/>
       <c r="G212" s="55"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="16" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
@@ -4851,7 +4905,7 @@
       <c r="F213" s="17"/>
       <c r="G213" s="56"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="8" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
@@ -4863,7 +4917,7 @@
       <c r="F214" s="15"/>
       <c r="G214" s="55"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="16" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
@@ -4875,7 +4929,7 @@
       <c r="F215" s="17"/>
       <c r="G215" s="56"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="8" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
@@ -4887,7 +4941,7 @@
       <c r="F216" s="15"/>
       <c r="G216" s="55"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="16" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
@@ -4899,7 +4953,7 @@
       <c r="F217" s="17"/>
       <c r="G217" s="56"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="8" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
@@ -4911,7 +4965,7 @@
       <c r="F218" s="15"/>
       <c r="G218" s="55"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="16" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
@@ -4923,7 +4977,7 @@
       <c r="F219" s="17"/>
       <c r="G219" s="56"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="8" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
@@ -4935,7 +4989,7 @@
       <c r="F220" s="15"/>
       <c r="G220" s="55"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="16" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
@@ -4947,7 +5001,7 @@
       <c r="F221" s="17"/>
       <c r="G221" s="56"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
@@ -4959,7 +5013,7 @@
       <c r="F222" s="15"/>
       <c r="G222" s="55"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="16" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
@@ -4971,7 +5025,7 @@
       <c r="F223" s="17"/>
       <c r="G223" s="56"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="8" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
@@ -4983,7 +5037,7 @@
       <c r="F224" s="15"/>
       <c r="G224" s="55"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="16" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
@@ -4995,7 +5049,7 @@
       <c r="F225" s="17"/>
       <c r="G225" s="56"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
@@ -5007,7 +5061,7 @@
       <c r="F226" s="15"/>
       <c r="G226" s="55"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="16" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
@@ -5019,7 +5073,7 @@
       <c r="F227" s="17"/>
       <c r="G227" s="56"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
@@ -5031,7 +5085,7 @@
       <c r="F228" s="15"/>
       <c r="G228" s="55"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="16" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
@@ -5043,7 +5097,7 @@
       <c r="F229" s="17"/>
       <c r="G229" s="56"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
@@ -5055,7 +5109,7 @@
       <c r="F230" s="15"/>
       <c r="G230" s="55"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="16" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
@@ -5067,7 +5121,7 @@
       <c r="F231" s="17"/>
       <c r="G231" s="56"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
@@ -5079,7 +5133,7 @@
       <c r="F232" s="15"/>
       <c r="G232" s="55"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="16" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
@@ -5091,7 +5145,7 @@
       <c r="F233" s="17"/>
       <c r="G233" s="56"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
@@ -5103,7 +5157,7 @@
       <c r="F234" s="15"/>
       <c r="G234" s="55"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="16" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
@@ -5115,7 +5169,7 @@
       <c r="F235" s="17"/>
       <c r="G235" s="56"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
@@ -5127,7 +5181,7 @@
       <c r="F236" s="15"/>
       <c r="G236" s="55"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="16" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
@@ -5139,7 +5193,7 @@
       <c r="F237" s="17"/>
       <c r="G237" s="56"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
@@ -5151,7 +5205,7 @@
       <c r="F238" s="15"/>
       <c r="G238" s="55"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="16" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
@@ -5163,7 +5217,7 @@
       <c r="F239" s="17"/>
       <c r="G239" s="56"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="8" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
@@ -5175,7 +5229,7 @@
       <c r="F240" s="15"/>
       <c r="G240" s="55"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="16" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
@@ -5187,7 +5241,7 @@
       <c r="F241" s="17"/>
       <c r="G241" s="56"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
@@ -5199,7 +5253,7 @@
       <c r="F242" s="15"/>
       <c r="G242" s="55"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="16" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
@@ -5211,7 +5265,7 @@
       <c r="F243" s="17"/>
       <c r="G243" s="56"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
@@ -5223,7 +5277,7 @@
       <c r="F244" s="15"/>
       <c r="G244" s="55"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="16" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
@@ -5235,7 +5289,7 @@
       <c r="F245" s="17"/>
       <c r="G245" s="56"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
@@ -5247,7 +5301,7 @@
       <c r="F246" s="15"/>
       <c r="G246" s="55"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="16" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
@@ -5259,7 +5313,7 @@
       <c r="F247" s="17"/>
       <c r="G247" s="56"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
@@ -5271,7 +5325,7 @@
       <c r="F248" s="15"/>
       <c r="G248" s="55"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="16" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
@@ -5283,7 +5337,7 @@
       <c r="F249" s="17"/>
       <c r="G249" s="56"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
@@ -5295,7 +5349,7 @@
       <c r="F250" s="15"/>
       <c r="G250" s="55"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="16" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
@@ -5307,7 +5361,7 @@
       <c r="F251" s="17"/>
       <c r="G251" s="56"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
@@ -5319,7 +5373,7 @@
       <c r="F252" s="15"/>
       <c r="G252" s="55"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="16" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
@@ -5331,7 +5385,7 @@
       <c r="F253" s="17"/>
       <c r="G253" s="56"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
@@ -5343,7 +5397,7 @@
       <c r="F254" s="15"/>
       <c r="G254" s="55"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="16" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
@@ -5355,7 +5409,7 @@
       <c r="F255" s="17"/>
       <c r="G255" s="56"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
@@ -5367,7 +5421,7 @@
       <c r="F256" s="15"/>
       <c r="G256" s="55"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="16" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
@@ -5379,7 +5433,7 @@
       <c r="F257" s="17"/>
       <c r="G257" s="56"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
@@ -5391,7 +5445,7 @@
       <c r="F258" s="15"/>
       <c r="G258" s="55"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="16" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
@@ -5403,7 +5457,7 @@
       <c r="F259" s="17"/>
       <c r="G259" s="56"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
@@ -5415,7 +5469,7 @@
       <c r="F260" s="15"/>
       <c r="G260" s="55"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="16" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
@@ -5427,7 +5481,7 @@
       <c r="F261" s="17"/>
       <c r="G261" s="56"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="8" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
@@ -5439,7 +5493,7 @@
       <c r="F262" s="15"/>
       <c r="G262" s="55"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="16" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
@@ -5451,7 +5505,7 @@
       <c r="F263" s="17"/>
       <c r="G263" s="56"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="8" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
@@ -5463,7 +5517,7 @@
       <c r="F264" s="15"/>
       <c r="G264" s="55"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="16" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
@@ -5475,7 +5529,7 @@
       <c r="F265" s="17"/>
       <c r="G265" s="56"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="8" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
@@ -5487,7 +5541,7 @@
       <c r="F266" s="15"/>
       <c r="G266" s="55"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="16" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
@@ -5499,7 +5553,7 @@
       <c r="F267" s="17"/>
       <c r="G267" s="56"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="8" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
@@ -5511,7 +5565,7 @@
       <c r="F268" s="15"/>
       <c r="G268" s="55"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="16" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
@@ -5523,7 +5577,7 @@
       <c r="F269" s="17"/>
       <c r="G269" s="56"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="8" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
@@ -5535,7 +5589,7 @@
       <c r="F270" s="15"/>
       <c r="G270" s="55"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="16" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
@@ -5547,7 +5601,7 @@
       <c r="F271" s="17"/>
       <c r="G271" s="56"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="8" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
@@ -5559,7 +5613,7 @@
       <c r="F272" s="15"/>
       <c r="G272" s="55"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="16" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
@@ -5571,7 +5625,7 @@
       <c r="F273" s="17"/>
       <c r="G273" s="56"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="8" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
@@ -5583,7 +5637,7 @@
       <c r="F274" s="15"/>
       <c r="G274" s="55"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="16" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
@@ -5595,7 +5649,7 @@
       <c r="F275" s="17"/>
       <c r="G275" s="56"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="8" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
@@ -5607,7 +5661,7 @@
       <c r="F276" s="15"/>
       <c r="G276" s="55"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="16" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
@@ -5619,7 +5673,7 @@
       <c r="F277" s="17"/>
       <c r="G277" s="56"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="8" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
@@ -5631,7 +5685,7 @@
       <c r="F278" s="15"/>
       <c r="G278" s="55"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="16" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
@@ -5643,7 +5697,7 @@
       <c r="F279" s="17"/>
       <c r="G279" s="56"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="8" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
@@ -5655,7 +5709,7 @@
       <c r="F280" s="15"/>
       <c r="G280" s="55"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="16" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
@@ -5667,7 +5721,7 @@
       <c r="F281" s="17"/>
       <c r="G281" s="56"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="8" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
@@ -5679,7 +5733,7 @@
       <c r="F282" s="15"/>
       <c r="G282" s="55"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="16" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
@@ -5691,7 +5745,7 @@
       <c r="F283" s="17"/>
       <c r="G283" s="56"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="8" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
@@ -5703,7 +5757,7 @@
       <c r="F284" s="15"/>
       <c r="G284" s="55"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="16" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
@@ -5715,7 +5769,7 @@
       <c r="F285" s="17"/>
       <c r="G285" s="56"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="8" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
@@ -5727,7 +5781,7 @@
       <c r="F286" s="15"/>
       <c r="G286" s="55"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="16" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
@@ -5739,7 +5793,7 @@
       <c r="F287" s="17"/>
       <c r="G287" s="56"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="8" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
@@ -5751,7 +5805,7 @@
       <c r="F288" s="15"/>
       <c r="G288" s="55"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="16" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
@@ -5763,7 +5817,7 @@
       <c r="F289" s="17"/>
       <c r="G289" s="56"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="8" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
@@ -5775,7 +5829,7 @@
       <c r="F290" s="15"/>
       <c r="G290" s="55"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="16" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
@@ -5787,7 +5841,7 @@
       <c r="F291" s="17"/>
       <c r="G291" s="56"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="8" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
@@ -5799,7 +5853,7 @@
       <c r="F292" s="15"/>
       <c r="G292" s="55"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="16" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
@@ -5811,7 +5865,7 @@
       <c r="F293" s="17"/>
       <c r="G293" s="56"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="8" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
@@ -5823,7 +5877,7 @@
       <c r="F294" s="15"/>
       <c r="G294" s="55"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="16" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
@@ -5835,7 +5889,7 @@
       <c r="F295" s="17"/>
       <c r="G295" s="56"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="8" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
@@ -5847,7 +5901,7 @@
       <c r="F296" s="15"/>
       <c r="G296" s="55"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="16" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
@@ -5859,7 +5913,7 @@
       <c r="F297" s="17"/>
       <c r="G297" s="56"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
@@ -5871,7 +5925,7 @@
       <c r="F298" s="15"/>
       <c r="G298" s="55"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="16" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
@@ -5883,7 +5937,7 @@
       <c r="F299" s="17"/>
       <c r="G299" s="56"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="8" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
@@ -5895,7 +5949,7 @@
       <c r="F300" s="15"/>
       <c r="G300" s="55"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="16" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
@@ -5907,7 +5961,7 @@
       <c r="F301" s="17"/>
       <c r="G301" s="56"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="8" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
@@ -5919,7 +5973,7 @@
       <c r="F302" s="15"/>
       <c r="G302" s="55"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="16" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
@@ -5931,7 +5985,7 @@
       <c r="F303" s="17"/>
       <c r="G303" s="56"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="8" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
@@ -5943,7 +5997,7 @@
       <c r="F304" s="15"/>
       <c r="G304" s="55"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="16" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
@@ -5955,7 +6009,7 @@
       <c r="F305" s="17"/>
       <c r="G305" s="56"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="8" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
@@ -5967,7 +6021,7 @@
       <c r="F306" s="15"/>
       <c r="G306" s="55"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="16" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
@@ -5979,7 +6033,7 @@
       <c r="F307" s="17"/>
       <c r="G307" s="56"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="8" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
@@ -5991,7 +6045,7 @@
       <c r="F308" s="15"/>
       <c r="G308" s="55"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="16" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
@@ -6003,7 +6057,7 @@
       <c r="F309" s="17"/>
       <c r="G309" s="56"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="8" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
@@ -6015,7 +6069,7 @@
       <c r="F310" s="15"/>
       <c r="G310" s="55"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="16" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
@@ -6027,7 +6081,7 @@
       <c r="F311" s="17"/>
       <c r="G311" s="56"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="8" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
@@ -6039,7 +6093,7 @@
       <c r="F312" s="15"/>
       <c r="G312" s="55"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="16" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
@@ -6051,7 +6105,7 @@
       <c r="F313" s="17"/>
       <c r="G313" s="56"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="8" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
@@ -6063,7 +6117,7 @@
       <c r="F314" s="15"/>
       <c r="G314" s="55"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="16" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
@@ -6075,7 +6129,7 @@
       <c r="F315" s="17"/>
       <c r="G315" s="56"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="8" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
@@ -6087,7 +6141,7 @@
       <c r="F316" s="15"/>
       <c r="G316" s="55"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="16" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
@@ -6099,7 +6153,7 @@
       <c r="F317" s="17"/>
       <c r="G317" s="56"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="8" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
@@ -6111,7 +6165,7 @@
       <c r="F318" s="15"/>
       <c r="G318" s="55"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="16" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
@@ -6123,7 +6177,7 @@
       <c r="F319" s="17"/>
       <c r="G319" s="56"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="8" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
@@ -6135,7 +6189,7 @@
       <c r="F320" s="15"/>
       <c r="G320" s="55"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="16" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
@@ -6147,7 +6201,7 @@
       <c r="F321" s="17"/>
       <c r="G321" s="56"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="8" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
@@ -6159,7 +6213,7 @@
       <c r="F322" s="15"/>
       <c r="G322" s="55"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="16" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
@@ -6171,7 +6225,7 @@
       <c r="F323" s="17"/>
       <c r="G323" s="56"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="8" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
@@ -6183,7 +6237,7 @@
       <c r="F324" s="15"/>
       <c r="G324" s="55"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="16" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
@@ -6195,7 +6249,7 @@
       <c r="F325" s="17"/>
       <c r="G325" s="56"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="8" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
@@ -6207,7 +6261,7 @@
       <c r="F326" s="15"/>
       <c r="G326" s="55"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="16" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
@@ -6219,7 +6273,7 @@
       <c r="F327" s="17"/>
       <c r="G327" s="56"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="8" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
@@ -6231,7 +6285,7 @@
       <c r="F328" s="15"/>
       <c r="G328" s="55"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="16" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
@@ -6243,7 +6297,7 @@
       <c r="F329" s="17"/>
       <c r="G329" s="56"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="8" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
@@ -6255,7 +6309,7 @@
       <c r="F330" s="15"/>
       <c r="G330" s="55"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="16" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
@@ -6267,7 +6321,7 @@
       <c r="F331" s="17"/>
       <c r="G331" s="56"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="8" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
@@ -6279,7 +6333,7 @@
       <c r="F332" s="15"/>
       <c r="G332" s="55"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="16" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
@@ -6291,7 +6345,7 @@
       <c r="F333" s="17"/>
       <c r="G333" s="56"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="8" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
@@ -6303,7 +6357,7 @@
       <c r="F334" s="15"/>
       <c r="G334" s="55"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="16" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
@@ -6315,7 +6369,7 @@
       <c r="F335" s="17"/>
       <c r="G335" s="56"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="8" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
@@ -6327,7 +6381,7 @@
       <c r="F336" s="15"/>
       <c r="G336" s="55"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="16" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
@@ -6339,7 +6393,7 @@
       <c r="F337" s="17"/>
       <c r="G337" s="56"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="8" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
@@ -6351,7 +6405,7 @@
       <c r="F338" s="15"/>
       <c r="G338" s="55"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="16" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
@@ -6363,7 +6417,7 @@
       <c r="F339" s="17"/>
       <c r="G339" s="56"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="8" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
@@ -6375,7 +6429,7 @@
       <c r="F340" s="15"/>
       <c r="G340" s="55"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="16" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
@@ -6387,7 +6441,7 @@
       <c r="F341" s="17"/>
       <c r="G341" s="56"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="8" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
@@ -6399,7 +6453,7 @@
       <c r="F342" s="15"/>
       <c r="G342" s="55"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="16" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
@@ -6411,7 +6465,7 @@
       <c r="F343" s="17"/>
       <c r="G343" s="56"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="8" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
@@ -6423,7 +6477,7 @@
       <c r="F344" s="15"/>
       <c r="G344" s="55"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="16" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
@@ -6435,7 +6489,7 @@
       <c r="F345" s="17"/>
       <c r="G345" s="56"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="8" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
@@ -6447,7 +6501,7 @@
       <c r="F346" s="15"/>
       <c r="G346" s="55"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="16" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
@@ -6459,7 +6513,7 @@
       <c r="F347" s="17"/>
       <c r="G347" s="56"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="8" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
@@ -6471,7 +6525,7 @@
       <c r="F348" s="15"/>
       <c r="G348" s="55"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="16" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
@@ -6483,7 +6537,7 @@
       <c r="F349" s="17"/>
       <c r="G349" s="56"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="8" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
@@ -6495,7 +6549,7 @@
       <c r="F350" s="15"/>
       <c r="G350" s="55"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="16" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
@@ -6507,7 +6561,7 @@
       <c r="F351" s="17"/>
       <c r="G351" s="56"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="8" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
@@ -6519,7 +6573,7 @@
       <c r="F352" s="15"/>
       <c r="G352" s="55"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="16" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
@@ -6531,7 +6585,7 @@
       <c r="F353" s="17"/>
       <c r="G353" s="56"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="8" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
@@ -6543,7 +6597,7 @@
       <c r="F354" s="15"/>
       <c r="G354" s="55"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="16" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
@@ -6555,7 +6609,7 @@
       <c r="F355" s="17"/>
       <c r="G355" s="56"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="8" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
@@ -6567,7 +6621,7 @@
       <c r="F356" s="15"/>
       <c r="G356" s="55"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="16" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
@@ -6579,7 +6633,7 @@
       <c r="F357" s="17"/>
       <c r="G357" s="56"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="8" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
@@ -6591,7 +6645,7 @@
       <c r="F358" s="15"/>
       <c r="G358" s="55"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="16" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
@@ -6603,7 +6657,7 @@
       <c r="F359" s="17"/>
       <c r="G359" s="56"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="8" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
@@ -6615,7 +6669,7 @@
       <c r="F360" s="15"/>
       <c r="G360" s="55"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="16" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
@@ -6627,7 +6681,7 @@
       <c r="F361" s="17"/>
       <c r="G361" s="56"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="8" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
@@ -6639,7 +6693,7 @@
       <c r="F362" s="15"/>
       <c r="G362" s="55"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="16" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
@@ -6651,7 +6705,7 @@
       <c r="F363" s="17"/>
       <c r="G363" s="56"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="8" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
@@ -6663,7 +6717,7 @@
       <c r="F364" s="15"/>
       <c r="G364" s="55"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="16" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
@@ -6675,7 +6729,7 @@
       <c r="F365" s="17"/>
       <c r="G365" s="56"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="8" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
@@ -6687,7 +6741,7 @@
       <c r="F366" s="15"/>
       <c r="G366" s="55"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="16" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
@@ -6699,7 +6753,7 @@
       <c r="F367" s="17"/>
       <c r="G367" s="56"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="8" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
@@ -6711,7 +6765,7 @@
       <c r="F368" s="15"/>
       <c r="G368" s="55"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="16" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
@@ -6723,7 +6777,7 @@
       <c r="F369" s="17"/>
       <c r="G369" s="56"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="8" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
@@ -6735,7 +6789,7 @@
       <c r="F370" s="15"/>
       <c r="G370" s="55"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="16" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
@@ -6747,7 +6801,7 @@
       <c r="F371" s="17"/>
       <c r="G371" s="56"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="8" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
@@ -6759,7 +6813,7 @@
       <c r="F372" s="15"/>
       <c r="G372" s="55"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="16" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
@@ -6771,7 +6825,7 @@
       <c r="F373" s="17"/>
       <c r="G373" s="56"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="8" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
@@ -6783,7 +6837,7 @@
       <c r="F374" s="15"/>
       <c r="G374" s="55"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="16" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
@@ -6795,7 +6849,7 @@
       <c r="F375" s="17"/>
       <c r="G375" s="56"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="8" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
@@ -6807,7 +6861,7 @@
       <c r="F376" s="15"/>
       <c r="G376" s="55"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="16" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
@@ -6819,7 +6873,7 @@
       <c r="F377" s="17"/>
       <c r="G377" s="56"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="8" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
@@ -6831,7 +6885,7 @@
       <c r="F378" s="15"/>
       <c r="G378" s="55"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="16" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
@@ -6843,7 +6897,7 @@
       <c r="F379" s="17"/>
       <c r="G379" s="56"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="8" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
@@ -6855,7 +6909,7 @@
       <c r="F380" s="15"/>
       <c r="G380" s="55"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="16" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
@@ -6867,7 +6921,7 @@
       <c r="F381" s="17"/>
       <c r="G381" s="56"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="8" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
@@ -6879,7 +6933,7 @@
       <c r="F382" s="15"/>
       <c r="G382" s="55"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="16" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
@@ -6891,7 +6945,7 @@
       <c r="F383" s="17"/>
       <c r="G383" s="56"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="8" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
@@ -6903,7 +6957,7 @@
       <c r="F384" s="15"/>
       <c r="G384" s="55"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="16" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
@@ -6915,7 +6969,7 @@
       <c r="F385" s="17"/>
       <c r="G385" s="56"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="8" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
@@ -6927,7 +6981,7 @@
       <c r="F386" s="15"/>
       <c r="G386" s="55"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="16" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
@@ -6939,7 +6993,7 @@
       <c r="F387" s="17"/>
       <c r="G387" s="56"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="8" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
@@ -6951,7 +7005,7 @@
       <c r="F388" s="15"/>
       <c r="G388" s="55"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="16" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
@@ -6963,7 +7017,7 @@
       <c r="F389" s="17"/>
       <c r="G389" s="56"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="8" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
@@ -6975,7 +7029,7 @@
       <c r="F390" s="15"/>
       <c r="G390" s="55"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="16" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
@@ -6987,7 +7041,7 @@
       <c r="F391" s="17"/>
       <c r="G391" s="56"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="8" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
@@ -6999,7 +7053,7 @@
       <c r="F392" s="15"/>
       <c r="G392" s="55"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="16" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
@@ -7011,7 +7065,7 @@
       <c r="F393" s="17"/>
       <c r="G393" s="56"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="8" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
@@ -7023,7 +7077,7 @@
       <c r="F394" s="15"/>
       <c r="G394" s="55"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="16" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
@@ -7035,7 +7089,7 @@
       <c r="F395" s="17"/>
       <c r="G395" s="56"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="8" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
@@ -7047,7 +7101,7 @@
       <c r="F396" s="15"/>
       <c r="G396" s="55"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="16" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
@@ -7059,7 +7113,7 @@
       <c r="F397" s="17"/>
       <c r="G397" s="56"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="8" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
@@ -7071,7 +7125,7 @@
       <c r="F398" s="15"/>
       <c r="G398" s="55"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="16" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
@@ -7083,7 +7137,7 @@
       <c r="F399" s="17"/>
       <c r="G399" s="56"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="8" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
@@ -7095,7 +7149,7 @@
       <c r="F400" s="15"/>
       <c r="G400" s="55"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="16" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
@@ -7107,7 +7161,7 @@
       <c r="F401" s="17"/>
       <c r="G401" s="56"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="8" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
@@ -7119,7 +7173,7 @@
       <c r="F402" s="15"/>
       <c r="G402" s="55"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="16" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
@@ -7131,7 +7185,7 @@
       <c r="F403" s="17"/>
       <c r="G403" s="56"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="8" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
@@ -7143,7 +7197,7 @@
       <c r="F404" s="15"/>
       <c r="G404" s="55"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="16" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
@@ -7155,7 +7209,7 @@
       <c r="F405" s="17"/>
       <c r="G405" s="56"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="8" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
@@ -7167,7 +7221,7 @@
       <c r="F406" s="15"/>
       <c r="G406" s="55"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="16" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
@@ -7179,7 +7233,7 @@
       <c r="F407" s="17"/>
       <c r="G407" s="56"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="8" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
@@ -7191,7 +7245,7 @@
       <c r="F408" s="15"/>
       <c r="G408" s="55"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="16" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
@@ -7203,7 +7257,7 @@
       <c r="F409" s="17"/>
       <c r="G409" s="56"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="8" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
@@ -7215,7 +7269,7 @@
       <c r="F410" s="15"/>
       <c r="G410" s="55"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="16" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
@@ -7227,7 +7281,7 @@
       <c r="F411" s="17"/>
       <c r="G411" s="56"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="8" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
@@ -7239,7 +7293,7 @@
       <c r="F412" s="15"/>
       <c r="G412" s="55"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="16" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
@@ -7251,7 +7305,7 @@
       <c r="F413" s="17"/>
       <c r="G413" s="56"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="8" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
@@ -7263,7 +7317,7 @@
       <c r="F414" s="15"/>
       <c r="G414" s="55"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="16" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
@@ -7275,7 +7329,7 @@
       <c r="F415" s="17"/>
       <c r="G415" s="56"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="8" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
@@ -7287,7 +7341,7 @@
       <c r="F416" s="15"/>
       <c r="G416" s="55"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="16" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
@@ -7299,7 +7353,7 @@
       <c r="F417" s="17"/>
       <c r="G417" s="56"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="8" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
@@ -7311,7 +7365,7 @@
       <c r="F418" s="15"/>
       <c r="G418" s="55"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="16" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
@@ -7323,7 +7377,7 @@
       <c r="F419" s="17"/>
       <c r="G419" s="56"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="8" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
@@ -7335,7 +7389,7 @@
       <c r="F420" s="15"/>
       <c r="G420" s="55"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="16" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
@@ -7347,7 +7401,7 @@
       <c r="F421" s="17"/>
       <c r="G421" s="56"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="8" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
@@ -7359,7 +7413,7 @@
       <c r="F422" s="15"/>
       <c r="G422" s="55"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="16" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
@@ -7371,7 +7425,7 @@
       <c r="F423" s="17"/>
       <c r="G423" s="56"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="8" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
@@ -7383,7 +7437,7 @@
       <c r="F424" s="15"/>
       <c r="G424" s="55"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="16" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
@@ -7395,7 +7449,7 @@
       <c r="F425" s="17"/>
       <c r="G425" s="56"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="8" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
@@ -7407,7 +7461,7 @@
       <c r="F426" s="15"/>
       <c r="G426" s="55"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="16" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
@@ -7419,7 +7473,7 @@
       <c r="F427" s="17"/>
       <c r="G427" s="56"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="8" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
@@ -7431,7 +7485,7 @@
       <c r="F428" s="15"/>
       <c r="G428" s="55"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="16" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
@@ -7443,7 +7497,7 @@
       <c r="F429" s="17"/>
       <c r="G429" s="56"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="8" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
@@ -7455,7 +7509,7 @@
       <c r="F430" s="15"/>
       <c r="G430" s="55"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="16" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
@@ -7467,7 +7521,7 @@
       <c r="F431" s="17"/>
       <c r="G431" s="56"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="8" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
@@ -7479,7 +7533,7 @@
       <c r="F432" s="15"/>
       <c r="G432" s="55"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="16" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
@@ -7491,7 +7545,7 @@
       <c r="F433" s="17"/>
       <c r="G433" s="56"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="8" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
@@ -7503,7 +7557,7 @@
       <c r="F434" s="15"/>
       <c r="G434" s="55"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="16" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
@@ -7515,7 +7569,7 @@
       <c r="F435" s="17"/>
       <c r="G435" s="56"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="8" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
@@ -7527,7 +7581,7 @@
       <c r="F436" s="15"/>
       <c r="G436" s="55"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="16" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
@@ -7539,7 +7593,7 @@
       <c r="F437" s="17"/>
       <c r="G437" s="56"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="8" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
@@ -7551,7 +7605,7 @@
       <c r="F438" s="15"/>
       <c r="G438" s="55"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="16" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
@@ -7563,7 +7617,7 @@
       <c r="F439" s="17"/>
       <c r="G439" s="56"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="8" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
@@ -7575,7 +7629,7 @@
       <c r="F440" s="15"/>
       <c r="G440" s="55"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="16" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
@@ -7587,7 +7641,7 @@
       <c r="F441" s="17"/>
       <c r="G441" s="56"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="8" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
@@ -7599,7 +7653,7 @@
       <c r="F442" s="15"/>
       <c r="G442" s="55"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="16" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
@@ -7611,7 +7665,7 @@
       <c r="F443" s="17"/>
       <c r="G443" s="56"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="8" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
@@ -7623,7 +7677,7 @@
       <c r="F444" s="15"/>
       <c r="G444" s="55"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="16" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
@@ -7635,7 +7689,7 @@
       <c r="F445" s="17"/>
       <c r="G445" s="56"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="8" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
@@ -7647,7 +7701,7 @@
       <c r="F446" s="15"/>
       <c r="G446" s="55"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="16" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
@@ -7659,7 +7713,7 @@
       <c r="F447" s="17"/>
       <c r="G447" s="56"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="8" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
@@ -7671,7 +7725,7 @@
       <c r="F448" s="15"/>
       <c r="G448" s="55"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="16" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
@@ -7683,7 +7737,7 @@
       <c r="F449" s="17"/>
       <c r="G449" s="56"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="8" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
@@ -7695,7 +7749,7 @@
       <c r="F450" s="15"/>
       <c r="G450" s="55"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="16" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
@@ -7707,7 +7761,7 @@
       <c r="F451" s="17"/>
       <c r="G451" s="56"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="8" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
@@ -7719,7 +7773,7 @@
       <c r="F452" s="15"/>
       <c r="G452" s="55"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="16" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
@@ -7731,7 +7785,7 @@
       <c r="F453" s="17"/>
       <c r="G453" s="56"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="8" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
@@ -7743,7 +7797,7 @@
       <c r="F454" s="15"/>
       <c r="G454" s="55"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="16" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
@@ -7755,7 +7809,7 @@
       <c r="F455" s="17"/>
       <c r="G455" s="56"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="8" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
@@ -7767,7 +7821,7 @@
       <c r="F456" s="15"/>
       <c r="G456" s="55"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="16" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
@@ -7779,7 +7833,7 @@
       <c r="F457" s="17"/>
       <c r="G457" s="56"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="8" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
@@ -7791,7 +7845,7 @@
       <c r="F458" s="15"/>
       <c r="G458" s="55"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="16" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
@@ -7803,7 +7857,7 @@
       <c r="F459" s="17"/>
       <c r="G459" s="56"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="8" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
@@ -7815,7 +7869,7 @@
       <c r="F460" s="15"/>
       <c r="G460" s="55"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="16" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
@@ -7827,7 +7881,7 @@
       <c r="F461" s="17"/>
       <c r="G461" s="56"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="8" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
@@ -7839,7 +7893,7 @@
       <c r="F462" s="15"/>
       <c r="G462" s="55"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="16" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
@@ -7851,7 +7905,7 @@
       <c r="F463" s="17"/>
       <c r="G463" s="56"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="8" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
@@ -7863,7 +7917,7 @@
       <c r="F464" s="15"/>
       <c r="G464" s="55"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="16" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
@@ -7875,7 +7929,7 @@
       <c r="F465" s="17"/>
       <c r="G465" s="56"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="8" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
@@ -7887,7 +7941,7 @@
       <c r="F466" s="15"/>
       <c r="G466" s="55"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="16" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
@@ -7899,7 +7953,7 @@
       <c r="F467" s="17"/>
       <c r="G467" s="56"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="8" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
@@ -7911,7 +7965,7 @@
       <c r="F468" s="15"/>
       <c r="G468" s="55"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="16" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
@@ -7923,7 +7977,7 @@
       <c r="F469" s="17"/>
       <c r="G469" s="56"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="8" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
@@ -7935,7 +7989,7 @@
       <c r="F470" s="15"/>
       <c r="G470" s="55"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="16" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
@@ -7947,7 +8001,7 @@
       <c r="F471" s="17"/>
       <c r="G471" s="56"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="8" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
@@ -7959,7 +8013,7 @@
       <c r="F472" s="15"/>
       <c r="G472" s="55"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="16" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
@@ -7971,7 +8025,7 @@
       <c r="F473" s="17"/>
       <c r="G473" s="56"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="8" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
@@ -7983,7 +8037,7 @@
       <c r="F474" s="15"/>
       <c r="G474" s="55"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="16" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
@@ -7995,7 +8049,7 @@
       <c r="F475" s="17"/>
       <c r="G475" s="56"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="8" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
@@ -8007,7 +8061,7 @@
       <c r="F476" s="15"/>
       <c r="G476" s="55"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="16" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
@@ -8019,7 +8073,7 @@
       <c r="F477" s="17"/>
       <c r="G477" s="56"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="8" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
@@ -8031,7 +8085,7 @@
       <c r="F478" s="15"/>
       <c r="G478" s="55"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="16" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
@@ -8043,7 +8097,7 @@
       <c r="F479" s="17"/>
       <c r="G479" s="56"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="8" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
@@ -8055,7 +8109,7 @@
       <c r="F480" s="15"/>
       <c r="G480" s="55"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="16" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
@@ -8067,7 +8121,7 @@
       <c r="F481" s="17"/>
       <c r="G481" s="56"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="8" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
@@ -8079,7 +8133,7 @@
       <c r="F482" s="15"/>
       <c r="G482" s="55"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="16" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
@@ -8091,7 +8145,7 @@
       <c r="F483" s="17"/>
       <c r="G483" s="56"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="8" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
@@ -8103,7 +8157,7 @@
       <c r="F484" s="15"/>
       <c r="G484" s="55"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="16" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
@@ -8115,7 +8169,7 @@
       <c r="F485" s="17"/>
       <c r="G485" s="56"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="8" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
@@ -8127,7 +8181,7 @@
       <c r="F486" s="15"/>
       <c r="G486" s="55"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="16" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
@@ -8139,7 +8193,7 @@
       <c r="F487" s="17"/>
       <c r="G487" s="56"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="8" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
@@ -8151,7 +8205,7 @@
       <c r="F488" s="15"/>
       <c r="G488" s="55"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="16" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
@@ -8163,7 +8217,7 @@
       <c r="F489" s="17"/>
       <c r="G489" s="56"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="8" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
@@ -8175,7 +8229,7 @@
       <c r="F490" s="15"/>
       <c r="G490" s="55"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="16" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
@@ -8187,7 +8241,7 @@
       <c r="F491" s="17"/>
       <c r="G491" s="56"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="8" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
@@ -8199,7 +8253,7 @@
       <c r="F492" s="15"/>
       <c r="G492" s="55"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="16" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
@@ -8211,7 +8265,7 @@
       <c r="F493" s="17"/>
       <c r="G493" s="56"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="8" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
@@ -8223,7 +8277,7 @@
       <c r="F494" s="15"/>
       <c r="G494" s="55"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="16" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
@@ -8235,7 +8289,7 @@
       <c r="F495" s="17"/>
       <c r="G495" s="56"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="8" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
@@ -8247,7 +8301,7 @@
       <c r="F496" s="15"/>
       <c r="G496" s="55"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="16" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
@@ -8259,7 +8313,7 @@
       <c r="F497" s="17"/>
       <c r="G497" s="56"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="8" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
@@ -8271,7 +8325,7 @@
       <c r="F498" s="15"/>
       <c r="G498" s="55"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="16" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
@@ -8283,7 +8337,7 @@
       <c r="F499" s="17"/>
       <c r="G499" s="56"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="8" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
@@ -8295,7 +8349,7 @@
       <c r="F500" s="15"/>
       <c r="G500" s="55"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="16" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
@@ -8307,7 +8361,7 @@
       <c r="F501" s="17"/>
       <c r="G501" s="56"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="8" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
@@ -8319,7 +8373,7 @@
       <c r="F502" s="15"/>
       <c r="G502" s="55"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="16" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
@@ -8331,7 +8385,7 @@
       <c r="F503" s="17"/>
       <c r="G503" s="56"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="8" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
@@ -8343,7 +8397,7 @@
       <c r="F504" s="15"/>
       <c r="G504" s="55"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="16" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
@@ -8355,7 +8409,7 @@
       <c r="F505" s="17"/>
       <c r="G505" s="56"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="8" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
@@ -8367,7 +8421,7 @@
       <c r="F506" s="15"/>
       <c r="G506" s="55"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="16" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
@@ -8379,7 +8433,7 @@
       <c r="F507" s="17"/>
       <c r="G507" s="56"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="8" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
@@ -8391,7 +8445,7 @@
       <c r="F508" s="15"/>
       <c r="G508" s="55"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="16" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
@@ -8403,7 +8457,7 @@
       <c r="F509" s="17"/>
       <c r="G509" s="56"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="8" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
@@ -8415,7 +8469,7 @@
       <c r="F510" s="15"/>
       <c r="G510" s="55"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="16" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
@@ -8427,7 +8481,7 @@
       <c r="F511" s="17"/>
       <c r="G511" s="56"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="8" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
@@ -8439,7 +8493,7 @@
       <c r="F512" s="15"/>
       <c r="G512" s="55"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="16" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
@@ -8451,7 +8505,7 @@
       <c r="F513" s="17"/>
       <c r="G513" s="56"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="8" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
@@ -8463,7 +8517,7 @@
       <c r="F514" s="15"/>
       <c r="G514" s="55"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="16" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
@@ -8475,7 +8529,7 @@
       <c r="F515" s="17"/>
       <c r="G515" s="56"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="8" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
@@ -8487,7 +8541,7 @@
       <c r="F516" s="15"/>
       <c r="G516" s="55"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="16" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
@@ -8499,7 +8553,7 @@
       <c r="F517" s="17"/>
       <c r="G517" s="56"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="8" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
@@ -8511,7 +8565,7 @@
       <c r="F518" s="15"/>
       <c r="G518" s="55"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="16" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
         <v/>
@@ -8523,7 +8577,7 @@
       <c r="F519" s="17"/>
       <c r="G519" s="56"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="8" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
         <v/>
@@ -8535,7 +8589,7 @@
       <c r="F520" s="15"/>
       <c r="G520" s="55"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="16" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
         <v/>
@@ -8547,7 +8601,7 @@
       <c r="F521" s="17"/>
       <c r="G521" s="56"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" s="8" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
         <v/>
@@ -8559,7 +8613,7 @@
       <c r="F522" s="15"/>
       <c r="G522" s="55"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" s="16" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
         <v/>
@@ -8571,7 +8625,7 @@
       <c r="F523" s="17"/>
       <c r="G523" s="56"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" s="8" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
         <v/>
@@ -8583,7 +8637,7 @@
       <c r="F524" s="15"/>
       <c r="G524" s="55"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" s="16" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
         <v/>
@@ -8595,7 +8649,7 @@
       <c r="F525" s="17"/>
       <c r="G525" s="56"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" s="8" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
         <v/>
@@ -8607,7 +8661,7 @@
       <c r="F526" s="15"/>
       <c r="G526" s="55"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" s="16" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
         <v/>
@@ -8619,7 +8673,7 @@
       <c r="F527" s="17"/>
       <c r="G527" s="56"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" s="8" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
         <v/>
@@ -8631,7 +8685,7 @@
       <c r="F528" s="15"/>
       <c r="G528" s="55"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" s="16" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
         <v/>
@@ -8643,7 +8697,7 @@
       <c r="F529" s="17"/>
       <c r="G529" s="56"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" s="8" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
         <v/>
@@ -8655,7 +8709,7 @@
       <c r="F530" s="15"/>
       <c r="G530" s="55"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" s="16" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
         <v/>
@@ -8667,7 +8721,7 @@
       <c r="F531" s="17"/>
       <c r="G531" s="56"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" s="8" t="str">
         <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
         <v/>
@@ -8686,28 +8740,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8739,14 +8793,14 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.875" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="10.8984375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8760,7 +8814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8778,14 +8832,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8793,10 +8847,10 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.34722222222222221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8814,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8832,7 +8886,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>60</v>
@@ -8850,7 +8904,7 @@
         <v>6.9444444444444448E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C9,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8868,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>180</v>
@@ -8886,7 +8940,7 @@
         <v>0.18402777777777779</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8904,16 +8958,16 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.63194444444444442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14" s="38"/>
     </row>
   </sheetData>
@@ -8924,6 +8978,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9146,7 +9209,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9157,16 +9220,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9185,7 +9247,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9194,12 +9256,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/Journal-de-Travail_NademoYosef.xlsx
+++ b/Documentation/Journal-de-Travail_NademoYosef.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aca75c2ab181ca0c/Документи/GitHub/Passion_lecture_Mobile/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Passion_lecture_Mobile\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{2FC3F3FA-6F9A-425C-9C53-9C41A5C21071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF149496-7E5B-4CD9-81F5-B1FEC5EAA1BC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ED0A1C-F9D5-4691-9369-1144460C0F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="9408" yWindow="0" windowWidth="13632" windowHeight="12336" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="31440" yWindow="435" windowWidth="23520" windowHeight="14235" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -181,19 +181,31 @@
     <t>deckerization (creation des containers pour backend, DB); configuration de init.sql (creatino de DB , creation d'une table, commandes d'insertion)</t>
   </si>
   <si>
-    <t>.yml .deckerfile init.sql</t>
-  </si>
-  <si>
     <t>implementation du backend + connexion avec DB + appmobile(en utilisant le guide)+ debugging; Methode pour importer des livres app-api-db</t>
-  </si>
-  <si>
-    <t>Methode pour importer des livres app-api-db</t>
   </si>
   <si>
     <t>creation de model + modifictaion ; modification + Combiner l'initialisation de la base de données avec le démarrage de l'application dans une fonction asynchrone (app)</t>
   </si>
   <si>
-    <t>app.listen(port, async () =&gt; {}</t>
+    <t>Methode pour importer des livres app-api-db      [chez-moi]</t>
+  </si>
+  <si>
+    <t>.yml .deckerfile init.sql   [chez-moi]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app.listen(port, async () =&gt; {}    [chez-moi] </t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Testing  routes,application dans insomnia+ correction des erreurs + Read book +  create Tag +get Tag</t>
+  </si>
+  <si>
+    <t>Backend(app.get/books; app.post/tags; app.get/tags  );Backend(TagModel)</t>
+  </si>
+  <si>
+    <t>insomnia, VS, xaml</t>
   </si>
 </sst>
 </file>
@@ -520,80 +532,6 @@
   <dxfs count="17">
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -764,6 +702,80 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -786,7 +798,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -853,7 +865,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1124,7 +1136,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34722222222222221</c:v>
+                  <c:v>0.43055555555555558</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1847,23 +1859,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2057,29 +2065,29 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="83.5" customWidth="1"/>
-    <col min="7" max="7" width="72.09765625" customWidth="1"/>
-    <col min="10" max="10" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.125" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="7.5" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -2090,7 +2098,7 @@
       </c>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2106,13 +2114,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 15 heurs 9 minutes</v>
+        <v>0 jours 17 heurs 10 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2123,7 +2131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="23.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
@@ -2131,22 +2139,22 @@
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>370</v>
+        <v>490</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>910</v>
+        <v>1030</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="58"/>
     </row>
-    <row r="6" spans="1:15" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>11</v>
       </c>
@@ -2169,7 +2177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
         <v>12</v>
@@ -2189,7 +2197,7 @@
       </c>
       <c r="G7" s="54"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
         <v>12</v>
@@ -2218,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
         <v>12</v>
@@ -2247,7 +2255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>12</v>
@@ -2276,7 +2284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
         <v>12</v>
@@ -2305,7 +2313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
         <v>13</v>
@@ -2334,7 +2342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
         <v>13</v>
@@ -2365,7 +2373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
         <v>14</v>
@@ -2394,7 +2402,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
         <v>14</v>
@@ -2425,7 +2433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
         <v>14</v>
@@ -2448,7 +2456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v>15</v>
@@ -2471,7 +2479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
         <v>15</v>
@@ -2494,7 +2502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
         <v>15</v>
@@ -2517,7 +2525,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
         <v>15</v>
@@ -2537,7 +2545,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:15" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
         <v>18</v>
@@ -2559,7 +2567,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
         <v>18</v>
@@ -2581,7 +2589,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
         <v>19</v>
@@ -2599,13 +2607,13 @@
         <v>4</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
         <v>19</v>
@@ -2624,10 +2632,10 @@
         <v>45</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
         <v>19</v>
@@ -2643,49 +2651,73 @@
         <v>4</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G25" s="56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="str">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v/>
-      </c>
-      <c r="B26" s="46"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="46">
+        <v>45793</v>
+      </c>
       <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="36"/>
+      <c r="D26" s="48">
+        <v>40</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="str">
+    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v/>
-      </c>
-      <c r="B27" s="50"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="50">
+        <v>45793</v>
+      </c>
       <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="56"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D27" s="52">
+        <v>50</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="str">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
         <v/>
       </c>
       <c r="B28" s="46"/>
       <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="35"/>
+      <c r="D28" s="48">
+        <v>30</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>53</v>
+      </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="str">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
         <v/>
@@ -2697,7 +2729,7 @@
       <c r="F29" s="35"/>
       <c r="G29" s="56"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
         <v/>
@@ -2709,7 +2741,7 @@
       <c r="F30" s="36"/>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="str">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
         <v/>
@@ -2721,7 +2753,7 @@
       <c r="F31" s="35"/>
       <c r="G31" s="56"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="str">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
         <v/>
@@ -2733,7 +2765,7 @@
       <c r="F32" s="36"/>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="str">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
         <v/>
@@ -2745,7 +2777,7 @@
       <c r="F33" s="35"/>
       <c r="G33" s="56"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="str">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
         <v/>
@@ -2757,7 +2789,7 @@
       <c r="F34" s="35"/>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="str">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
         <v/>
@@ -2769,7 +2801,7 @@
       <c r="F35" s="36"/>
       <c r="G35" s="56"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="str">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
         <v/>
@@ -2781,7 +2813,7 @@
       <c r="F36" s="35"/>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="str">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
         <v/>
@@ -2793,7 +2825,7 @@
       <c r="F37" s="35"/>
       <c r="G37" s="56"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="str">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
         <v/>
@@ -2805,7 +2837,7 @@
       <c r="F38" s="35"/>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
         <v/>
@@ -2817,7 +2849,7 @@
       <c r="F39" s="35"/>
       <c r="G39" s="56"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
         <v/>
@@ -2829,7 +2861,7 @@
       <c r="F40" s="35"/>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
         <v/>
@@ -2841,7 +2873,7 @@
       <c r="F41" s="35"/>
       <c r="G41" s="56"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
         <v/>
@@ -2853,7 +2885,7 @@
       <c r="F42" s="35"/>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
         <v/>
@@ -2865,7 +2897,7 @@
       <c r="F43" s="35"/>
       <c r="G43" s="56"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
         <v/>
@@ -2877,7 +2909,7 @@
       <c r="F44" s="35"/>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
         <v/>
@@ -2889,7 +2921,7 @@
       <c r="F45" s="35"/>
       <c r="G45" s="56"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
         <v/>
@@ -2901,7 +2933,7 @@
       <c r="F46" s="35"/>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
         <v/>
@@ -2913,7 +2945,7 @@
       <c r="F47" s="35"/>
       <c r="G47" s="56"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
         <v/>
@@ -2925,7 +2957,7 @@
       <c r="F48" s="35"/>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
         <v/>
@@ -2937,7 +2969,7 @@
       <c r="F49" s="35"/>
       <c r="G49" s="56"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
         <v/>
@@ -2949,7 +2981,7 @@
       <c r="F50" s="35"/>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
         <v/>
@@ -2961,7 +2993,7 @@
       <c r="F51" s="35"/>
       <c r="G51" s="56"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
         <v/>
@@ -2973,7 +3005,7 @@
       <c r="F52" s="35"/>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
         <v/>
@@ -2985,7 +3017,7 @@
       <c r="F53" s="35"/>
       <c r="G53" s="56"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
         <v/>
@@ -2997,7 +3029,7 @@
       <c r="F54" s="35"/>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
         <v/>
@@ -3009,7 +3041,7 @@
       <c r="F55" s="35"/>
       <c r="G55" s="56"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
         <v/>
@@ -3021,7 +3053,7 @@
       <c r="F56" s="15"/>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
         <v/>
@@ -3033,7 +3065,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="56"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
         <v/>
@@ -3045,7 +3077,7 @@
       <c r="F58" s="15"/>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
         <v/>
@@ -3057,7 +3089,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="56"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
         <v/>
@@ -3069,7 +3101,7 @@
       <c r="F60" s="15"/>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
         <v/>
@@ -3081,7 +3113,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="56"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
         <v/>
@@ -3093,7 +3125,7 @@
       <c r="F62" s="15"/>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
         <v/>
@@ -3105,7 +3137,7 @@
       <c r="F63" s="17"/>
       <c r="G63" s="56"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
         <v/>
@@ -3117,7 +3149,7 @@
       <c r="F64" s="15"/>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
         <v/>
@@ -3129,7 +3161,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="56"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
         <v/>
@@ -3141,7 +3173,7 @@
       <c r="F66" s="15"/>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
         <v/>
@@ -3153,7 +3185,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="56"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
         <v/>
@@ -3165,7 +3197,7 @@
       <c r="F68" s="15"/>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
         <v/>
@@ -3177,7 +3209,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="56"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
         <v/>
@@ -3189,7 +3221,7 @@
       <c r="F70" s="15"/>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
         <v/>
@@ -3201,7 +3233,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="56"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
         <v/>
@@ -3213,7 +3245,7 @@
       <c r="F72" s="15"/>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
         <v/>
@@ -3225,7 +3257,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="56"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
         <v/>
@@ -3237,7 +3269,7 @@
       <c r="F74" s="15"/>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
@@ -3249,7 +3281,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="56"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
@@ -3261,7 +3293,7 @@
       <c r="F76" s="15"/>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
@@ -3273,7 +3305,7 @@
       <c r="F77" s="17"/>
       <c r="G77" s="56"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
@@ -3285,7 +3317,7 @@
       <c r="F78" s="15"/>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
@@ -3297,7 +3329,7 @@
       <c r="F79" s="17"/>
       <c r="G79" s="56"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
@@ -3309,7 +3341,7 @@
       <c r="F80" s="15"/>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
@@ -3321,7 +3353,7 @@
       <c r="F81" s="17"/>
       <c r="G81" s="56"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
@@ -3333,7 +3365,7 @@
       <c r="F82" s="15"/>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
@@ -3345,7 +3377,7 @@
       <c r="F83" s="17"/>
       <c r="G83" s="56"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
@@ -3357,7 +3389,7 @@
       <c r="F84" s="15"/>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
@@ -3369,7 +3401,7 @@
       <c r="F85" s="17"/>
       <c r="G85" s="56"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
@@ -3381,7 +3413,7 @@
       <c r="F86" s="15"/>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
@@ -3393,7 +3425,7 @@
       <c r="F87" s="17"/>
       <c r="G87" s="56"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
@@ -3405,7 +3437,7 @@
       <c r="F88" s="15"/>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
@@ -3417,7 +3449,7 @@
       <c r="F89" s="17"/>
       <c r="G89" s="56"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
@@ -3429,7 +3461,7 @@
       <c r="F90" s="15"/>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
@@ -3441,7 +3473,7 @@
       <c r="F91" s="17"/>
       <c r="G91" s="56"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
@@ -3453,7 +3485,7 @@
       <c r="F92" s="15"/>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
@@ -3465,7 +3497,7 @@
       <c r="F93" s="17"/>
       <c r="G93" s="56"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
@@ -3477,7 +3509,7 @@
       <c r="F94" s="15"/>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
@@ -3489,7 +3521,7 @@
       <c r="F95" s="17"/>
       <c r="G95" s="56"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
@@ -3501,7 +3533,7 @@
       <c r="F96" s="15"/>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
@@ -3513,7 +3545,7 @@
       <c r="F97" s="17"/>
       <c r="G97" s="56"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
@@ -3525,7 +3557,7 @@
       <c r="F98" s="15"/>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
@@ -3537,7 +3569,7 @@
       <c r="F99" s="17"/>
       <c r="G99" s="56"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
@@ -3549,7 +3581,7 @@
       <c r="F100" s="15"/>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
@@ -3561,7 +3593,7 @@
       <c r="F101" s="17"/>
       <c r="G101" s="56"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
@@ -3573,7 +3605,7 @@
       <c r="F102" s="15"/>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
@@ -3585,7 +3617,7 @@
       <c r="F103" s="17"/>
       <c r="G103" s="56"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
@@ -3597,7 +3629,7 @@
       <c r="F104" s="15"/>
       <c r="G104" s="55"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
@@ -3609,7 +3641,7 @@
       <c r="F105" s="17"/>
       <c r="G105" s="56"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
@@ -3621,7 +3653,7 @@
       <c r="F106" s="15"/>
       <c r="G106" s="55"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
@@ -3633,7 +3665,7 @@
       <c r="F107" s="17"/>
       <c r="G107" s="56"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
@@ -3645,7 +3677,7 @@
       <c r="F108" s="15"/>
       <c r="G108" s="55"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
@@ -3657,7 +3689,7 @@
       <c r="F109" s="17"/>
       <c r="G109" s="56"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
@@ -3669,7 +3701,7 @@
       <c r="F110" s="15"/>
       <c r="G110" s="55"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
@@ -3681,7 +3713,7 @@
       <c r="F111" s="17"/>
       <c r="G111" s="56"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
@@ -3693,7 +3725,7 @@
       <c r="F112" s="15"/>
       <c r="G112" s="55"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
@@ -3705,7 +3737,7 @@
       <c r="F113" s="17"/>
       <c r="G113" s="56"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
@@ -3717,7 +3749,7 @@
       <c r="F114" s="15"/>
       <c r="G114" s="55"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
@@ -3729,7 +3761,7 @@
       <c r="F115" s="17"/>
       <c r="G115" s="56"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
@@ -3741,7 +3773,7 @@
       <c r="F116" s="15"/>
       <c r="G116" s="55"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
@@ -3753,7 +3785,7 @@
       <c r="F117" s="17"/>
       <c r="G117" s="56"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
@@ -3765,7 +3797,7 @@
       <c r="F118" s="15"/>
       <c r="G118" s="55"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
@@ -3777,7 +3809,7 @@
       <c r="F119" s="17"/>
       <c r="G119" s="56"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
@@ -3789,7 +3821,7 @@
       <c r="F120" s="15"/>
       <c r="G120" s="55"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
@@ -3801,7 +3833,7 @@
       <c r="F121" s="17"/>
       <c r="G121" s="56"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
@@ -3813,7 +3845,7 @@
       <c r="F122" s="15"/>
       <c r="G122" s="55"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
@@ -3825,7 +3857,7 @@
       <c r="F123" s="17"/>
       <c r="G123" s="56"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
@@ -3837,7 +3869,7 @@
       <c r="F124" s="15"/>
       <c r="G124" s="55"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
@@ -3849,7 +3881,7 @@
       <c r="F125" s="17"/>
       <c r="G125" s="56"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
@@ -3861,7 +3893,7 @@
       <c r="F126" s="15"/>
       <c r="G126" s="55"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
@@ -3873,7 +3905,7 @@
       <c r="F127" s="17"/>
       <c r="G127" s="56"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
@@ -3885,7 +3917,7 @@
       <c r="F128" s="15"/>
       <c r="G128" s="55"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
@@ -3897,7 +3929,7 @@
       <c r="F129" s="17"/>
       <c r="G129" s="56"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
@@ -3909,7 +3941,7 @@
       <c r="F130" s="15"/>
       <c r="G130" s="55"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
@@ -3921,7 +3953,7 @@
       <c r="F131" s="17"/>
       <c r="G131" s="56"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
@@ -3933,7 +3965,7 @@
       <c r="F132" s="15"/>
       <c r="G132" s="55"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
@@ -3945,7 +3977,7 @@
       <c r="F133" s="17"/>
       <c r="G133" s="56"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
@@ -3957,7 +3989,7 @@
       <c r="F134" s="15"/>
       <c r="G134" s="55"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
@@ -3969,7 +4001,7 @@
       <c r="F135" s="17"/>
       <c r="G135" s="56"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
@@ -3981,7 +4013,7 @@
       <c r="F136" s="15"/>
       <c r="G136" s="55"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
@@ -3993,7 +4025,7 @@
       <c r="F137" s="17"/>
       <c r="G137" s="56"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
@@ -4005,7 +4037,7 @@
       <c r="F138" s="15"/>
       <c r="G138" s="55"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
@@ -4017,7 +4049,7 @@
       <c r="F139" s="17"/>
       <c r="G139" s="56"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
@@ -4029,7 +4061,7 @@
       <c r="F140" s="15"/>
       <c r="G140" s="55"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
@@ -4041,7 +4073,7 @@
       <c r="F141" s="17"/>
       <c r="G141" s="56"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
@@ -4053,7 +4085,7 @@
       <c r="F142" s="15"/>
       <c r="G142" s="55"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
@@ -4065,7 +4097,7 @@
       <c r="F143" s="17"/>
       <c r="G143" s="56"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
@@ -4077,7 +4109,7 @@
       <c r="F144" s="15"/>
       <c r="G144" s="55"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
@@ -4089,7 +4121,7 @@
       <c r="F145" s="17"/>
       <c r="G145" s="56"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
@@ -4101,7 +4133,7 @@
       <c r="F146" s="15"/>
       <c r="G146" s="55"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
@@ -4113,7 +4145,7 @@
       <c r="F147" s="17"/>
       <c r="G147" s="56"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
@@ -4125,7 +4157,7 @@
       <c r="F148" s="15"/>
       <c r="G148" s="55"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
@@ -4137,7 +4169,7 @@
       <c r="F149" s="17"/>
       <c r="G149" s="56"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
@@ -4149,7 +4181,7 @@
       <c r="F150" s="15"/>
       <c r="G150" s="55"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
@@ -4161,7 +4193,7 @@
       <c r="F151" s="17"/>
       <c r="G151" s="56"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
@@ -4173,7 +4205,7 @@
       <c r="F152" s="15"/>
       <c r="G152" s="55"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
@@ -4185,7 +4217,7 @@
       <c r="F153" s="17"/>
       <c r="G153" s="56"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
@@ -4197,7 +4229,7 @@
       <c r="F154" s="15"/>
       <c r="G154" s="55"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
@@ -4209,7 +4241,7 @@
       <c r="F155" s="17"/>
       <c r="G155" s="56"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
@@ -4221,7 +4253,7 @@
       <c r="F156" s="15"/>
       <c r="G156" s="55"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
@@ -4233,7 +4265,7 @@
       <c r="F157" s="17"/>
       <c r="G157" s="56"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
@@ -4245,7 +4277,7 @@
       <c r="F158" s="15"/>
       <c r="G158" s="55"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
@@ -4257,7 +4289,7 @@
       <c r="F159" s="17"/>
       <c r="G159" s="56"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
@@ -4269,7 +4301,7 @@
       <c r="F160" s="15"/>
       <c r="G160" s="55"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
@@ -4281,7 +4313,7 @@
       <c r="F161" s="17"/>
       <c r="G161" s="56"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
@@ -4293,7 +4325,7 @@
       <c r="F162" s="15"/>
       <c r="G162" s="55"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
@@ -4305,7 +4337,7 @@
       <c r="F163" s="17"/>
       <c r="G163" s="56"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
@@ -4317,7 +4349,7 @@
       <c r="F164" s="15"/>
       <c r="G164" s="55"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
@@ -4329,7 +4361,7 @@
       <c r="F165" s="17"/>
       <c r="G165" s="56"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
@@ -4341,7 +4373,7 @@
       <c r="F166" s="15"/>
       <c r="G166" s="55"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
@@ -4353,7 +4385,7 @@
       <c r="F167" s="17"/>
       <c r="G167" s="56"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
@@ -4365,7 +4397,7 @@
       <c r="F168" s="15"/>
       <c r="G168" s="55"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="16" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
@@ -4377,7 +4409,7 @@
       <c r="F169" s="17"/>
       <c r="G169" s="56"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
@@ -4389,7 +4421,7 @@
       <c r="F170" s="15"/>
       <c r="G170" s="55"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
@@ -4401,7 +4433,7 @@
       <c r="F171" s="17"/>
       <c r="G171" s="56"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
@@ -4413,7 +4445,7 @@
       <c r="F172" s="15"/>
       <c r="G172" s="55"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
@@ -4425,7 +4457,7 @@
       <c r="F173" s="17"/>
       <c r="G173" s="56"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
@@ -4437,7 +4469,7 @@
       <c r="F174" s="15"/>
       <c r="G174" s="55"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
@@ -4449,7 +4481,7 @@
       <c r="F175" s="17"/>
       <c r="G175" s="56"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
@@ -4461,7 +4493,7 @@
       <c r="F176" s="15"/>
       <c r="G176" s="55"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
@@ -4473,7 +4505,7 @@
       <c r="F177" s="17"/>
       <c r="G177" s="56"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
@@ -4485,7 +4517,7 @@
       <c r="F178" s="15"/>
       <c r="G178" s="55"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
@@ -4497,7 +4529,7 @@
       <c r="F179" s="17"/>
       <c r="G179" s="56"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
@@ -4509,7 +4541,7 @@
       <c r="F180" s="15"/>
       <c r="G180" s="55"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
@@ -4521,7 +4553,7 @@
       <c r="F181" s="17"/>
       <c r="G181" s="56"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
@@ -4533,7 +4565,7 @@
       <c r="F182" s="15"/>
       <c r="G182" s="55"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
@@ -4545,7 +4577,7 @@
       <c r="F183" s="17"/>
       <c r="G183" s="56"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
@@ -4557,7 +4589,7 @@
       <c r="F184" s="15"/>
       <c r="G184" s="55"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
@@ -4569,7 +4601,7 @@
       <c r="F185" s="17"/>
       <c r="G185" s="56"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
@@ -4581,7 +4613,7 @@
       <c r="F186" s="15"/>
       <c r="G186" s="55"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
@@ -4593,7 +4625,7 @@
       <c r="F187" s="17"/>
       <c r="G187" s="56"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
@@ -4605,7 +4637,7 @@
       <c r="F188" s="15"/>
       <c r="G188" s="55"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
@@ -4617,7 +4649,7 @@
       <c r="F189" s="17"/>
       <c r="G189" s="56"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
@@ -4629,7 +4661,7 @@
       <c r="F190" s="15"/>
       <c r="G190" s="55"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
@@ -4641,7 +4673,7 @@
       <c r="F191" s="17"/>
       <c r="G191" s="56"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
@@ -4653,7 +4685,7 @@
       <c r="F192" s="15"/>
       <c r="G192" s="55"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
@@ -4665,7 +4697,7 @@
       <c r="F193" s="17"/>
       <c r="G193" s="56"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
@@ -4677,7 +4709,7 @@
       <c r="F194" s="15"/>
       <c r="G194" s="55"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
@@ -4689,7 +4721,7 @@
       <c r="F195" s="17"/>
       <c r="G195" s="56"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
@@ -4701,7 +4733,7 @@
       <c r="F196" s="15"/>
       <c r="G196" s="55"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="16" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
@@ -4713,7 +4745,7 @@
       <c r="F197" s="17"/>
       <c r="G197" s="56"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
@@ -4725,7 +4757,7 @@
       <c r="F198" s="15"/>
       <c r="G198" s="55"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
@@ -4737,7 +4769,7 @@
       <c r="F199" s="17"/>
       <c r="G199" s="56"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
@@ -4749,7 +4781,7 @@
       <c r="F200" s="15"/>
       <c r="G200" s="55"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="16" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
@@ -4761,7 +4793,7 @@
       <c r="F201" s="17"/>
       <c r="G201" s="56"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
@@ -4773,7 +4805,7 @@
       <c r="F202" s="15"/>
       <c r="G202" s="55"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
@@ -4785,7 +4817,7 @@
       <c r="F203" s="17"/>
       <c r="G203" s="56"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
@@ -4797,7 +4829,7 @@
       <c r="F204" s="15"/>
       <c r="G204" s="55"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="16" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
@@ -4809,7 +4841,7 @@
       <c r="F205" s="17"/>
       <c r="G205" s="56"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
@@ -4821,7 +4853,7 @@
       <c r="F206" s="15"/>
       <c r="G206" s="55"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
@@ -4833,7 +4865,7 @@
       <c r="F207" s="17"/>
       <c r="G207" s="56"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
@@ -4845,7 +4877,7 @@
       <c r="F208" s="15"/>
       <c r="G208" s="55"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="16" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
@@ -4857,7 +4889,7 @@
       <c r="F209" s="17"/>
       <c r="G209" s="56"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
@@ -4869,7 +4901,7 @@
       <c r="F210" s="15"/>
       <c r="G210" s="55"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="16" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
@@ -4881,7 +4913,7 @@
       <c r="F211" s="17"/>
       <c r="G211" s="56"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
@@ -4893,7 +4925,7 @@
       <c r="F212" s="15"/>
       <c r="G212" s="55"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
@@ -4905,7 +4937,7 @@
       <c r="F213" s="17"/>
       <c r="G213" s="56"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
@@ -4917,7 +4949,7 @@
       <c r="F214" s="15"/>
       <c r="G214" s="55"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
@@ -4929,7 +4961,7 @@
       <c r="F215" s="17"/>
       <c r="G215" s="56"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
@@ -4941,7 +4973,7 @@
       <c r="F216" s="15"/>
       <c r="G216" s="55"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="16" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
@@ -4953,7 +4985,7 @@
       <c r="F217" s="17"/>
       <c r="G217" s="56"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
@@ -4965,7 +4997,7 @@
       <c r="F218" s="15"/>
       <c r="G218" s="55"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
@@ -4977,7 +5009,7 @@
       <c r="F219" s="17"/>
       <c r="G219" s="56"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
@@ -4989,7 +5021,7 @@
       <c r="F220" s="15"/>
       <c r="G220" s="55"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
@@ -5001,7 +5033,7 @@
       <c r="F221" s="17"/>
       <c r="G221" s="56"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
@@ -5013,7 +5045,7 @@
       <c r="F222" s="15"/>
       <c r="G222" s="55"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
@@ -5025,7 +5057,7 @@
       <c r="F223" s="17"/>
       <c r="G223" s="56"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
@@ -5037,7 +5069,7 @@
       <c r="F224" s="15"/>
       <c r="G224" s="55"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="16" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
@@ -5049,7 +5081,7 @@
       <c r="F225" s="17"/>
       <c r="G225" s="56"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
@@ -5061,7 +5093,7 @@
       <c r="F226" s="15"/>
       <c r="G226" s="55"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
@@ -5073,7 +5105,7 @@
       <c r="F227" s="17"/>
       <c r="G227" s="56"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
@@ -5085,7 +5117,7 @@
       <c r="F228" s="15"/>
       <c r="G228" s="55"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
@@ -5097,7 +5129,7 @@
       <c r="F229" s="17"/>
       <c r="G229" s="56"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
@@ -5109,7 +5141,7 @@
       <c r="F230" s="15"/>
       <c r="G230" s="55"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
@@ -5121,7 +5153,7 @@
       <c r="F231" s="17"/>
       <c r="G231" s="56"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
@@ -5133,7 +5165,7 @@
       <c r="F232" s="15"/>
       <c r="G232" s="55"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
@@ -5145,7 +5177,7 @@
       <c r="F233" s="17"/>
       <c r="G233" s="56"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
@@ -5157,7 +5189,7 @@
       <c r="F234" s="15"/>
       <c r="G234" s="55"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="16" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
@@ -5169,7 +5201,7 @@
       <c r="F235" s="17"/>
       <c r="G235" s="56"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
@@ -5181,7 +5213,7 @@
       <c r="F236" s="15"/>
       <c r="G236" s="55"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
@@ -5193,7 +5225,7 @@
       <c r="F237" s="17"/>
       <c r="G237" s="56"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
@@ -5205,7 +5237,7 @@
       <c r="F238" s="15"/>
       <c r="G238" s="55"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="16" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
@@ -5217,7 +5249,7 @@
       <c r="F239" s="17"/>
       <c r="G239" s="56"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
@@ -5229,7 +5261,7 @@
       <c r="F240" s="15"/>
       <c r="G240" s="55"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
@@ -5241,7 +5273,7 @@
       <c r="F241" s="17"/>
       <c r="G241" s="56"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
@@ -5253,7 +5285,7 @@
       <c r="F242" s="15"/>
       <c r="G242" s="55"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
@@ -5265,7 +5297,7 @@
       <c r="F243" s="17"/>
       <c r="G243" s="56"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
@@ -5277,7 +5309,7 @@
       <c r="F244" s="15"/>
       <c r="G244" s="55"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
@@ -5289,7 +5321,7 @@
       <c r="F245" s="17"/>
       <c r="G245" s="56"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
@@ -5301,7 +5333,7 @@
       <c r="F246" s="15"/>
       <c r="G246" s="55"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="16" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
@@ -5313,7 +5345,7 @@
       <c r="F247" s="17"/>
       <c r="G247" s="56"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
@@ -5325,7 +5357,7 @@
       <c r="F248" s="15"/>
       <c r="G248" s="55"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="16" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
@@ -5337,7 +5369,7 @@
       <c r="F249" s="17"/>
       <c r="G249" s="56"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
@@ -5349,7 +5381,7 @@
       <c r="F250" s="15"/>
       <c r="G250" s="55"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="16" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
@@ -5361,7 +5393,7 @@
       <c r="F251" s="17"/>
       <c r="G251" s="56"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
@@ -5373,7 +5405,7 @@
       <c r="F252" s="15"/>
       <c r="G252" s="55"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
@@ -5385,7 +5417,7 @@
       <c r="F253" s="17"/>
       <c r="G253" s="56"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
@@ -5397,7 +5429,7 @@
       <c r="F254" s="15"/>
       <c r="G254" s="55"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
@@ -5409,7 +5441,7 @@
       <c r="F255" s="17"/>
       <c r="G255" s="56"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
@@ -5421,7 +5453,7 @@
       <c r="F256" s="15"/>
       <c r="G256" s="55"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="16" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
@@ -5433,7 +5465,7 @@
       <c r="F257" s="17"/>
       <c r="G257" s="56"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
@@ -5445,7 +5477,7 @@
       <c r="F258" s="15"/>
       <c r="G258" s="55"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="16" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
@@ -5457,7 +5489,7 @@
       <c r="F259" s="17"/>
       <c r="G259" s="56"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
@@ -5469,7 +5501,7 @@
       <c r="F260" s="15"/>
       <c r="G260" s="55"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="16" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
@@ -5481,7 +5513,7 @@
       <c r="F261" s="17"/>
       <c r="G261" s="56"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
@@ -5493,7 +5525,7 @@
       <c r="F262" s="15"/>
       <c r="G262" s="55"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="16" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
@@ -5505,7 +5537,7 @@
       <c r="F263" s="17"/>
       <c r="G263" s="56"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
@@ -5517,7 +5549,7 @@
       <c r="F264" s="15"/>
       <c r="G264" s="55"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="16" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
@@ -5529,7 +5561,7 @@
       <c r="F265" s="17"/>
       <c r="G265" s="56"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
@@ -5541,7 +5573,7 @@
       <c r="F266" s="15"/>
       <c r="G266" s="55"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="16" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
@@ -5553,7 +5585,7 @@
       <c r="F267" s="17"/>
       <c r="G267" s="56"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
@@ -5565,7 +5597,7 @@
       <c r="F268" s="15"/>
       <c r="G268" s="55"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="16" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
@@ -5577,7 +5609,7 @@
       <c r="F269" s="17"/>
       <c r="G269" s="56"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
@@ -5589,7 +5621,7 @@
       <c r="F270" s="15"/>
       <c r="G270" s="55"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="16" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
@@ -5601,7 +5633,7 @@
       <c r="F271" s="17"/>
       <c r="G271" s="56"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
@@ -5613,7 +5645,7 @@
       <c r="F272" s="15"/>
       <c r="G272" s="55"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="16" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
@@ -5625,7 +5657,7 @@
       <c r="F273" s="17"/>
       <c r="G273" s="56"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
@@ -5637,7 +5669,7 @@
       <c r="F274" s="15"/>
       <c r="G274" s="55"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="16" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
@@ -5649,7 +5681,7 @@
       <c r="F275" s="17"/>
       <c r="G275" s="56"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
@@ -5661,7 +5693,7 @@
       <c r="F276" s="15"/>
       <c r="G276" s="55"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="16" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
@@ -5673,7 +5705,7 @@
       <c r="F277" s="17"/>
       <c r="G277" s="56"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
@@ -5685,7 +5717,7 @@
       <c r="F278" s="15"/>
       <c r="G278" s="55"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="16" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
@@ -5697,7 +5729,7 @@
       <c r="F279" s="17"/>
       <c r="G279" s="56"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
@@ -5709,7 +5741,7 @@
       <c r="F280" s="15"/>
       <c r="G280" s="55"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="16" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
@@ -5721,7 +5753,7 @@
       <c r="F281" s="17"/>
       <c r="G281" s="56"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
@@ -5733,7 +5765,7 @@
       <c r="F282" s="15"/>
       <c r="G282" s="55"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="16" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
@@ -5745,7 +5777,7 @@
       <c r="F283" s="17"/>
       <c r="G283" s="56"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
@@ -5757,7 +5789,7 @@
       <c r="F284" s="15"/>
       <c r="G284" s="55"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="16" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
@@ -5769,7 +5801,7 @@
       <c r="F285" s="17"/>
       <c r="G285" s="56"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="8" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
@@ -5781,7 +5813,7 @@
       <c r="F286" s="15"/>
       <c r="G286" s="55"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="16" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
@@ -5793,7 +5825,7 @@
       <c r="F287" s="17"/>
       <c r="G287" s="56"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="8" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
@@ -5805,7 +5837,7 @@
       <c r="F288" s="15"/>
       <c r="G288" s="55"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="16" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
@@ -5817,7 +5849,7 @@
       <c r="F289" s="17"/>
       <c r="G289" s="56"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="8" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
@@ -5829,7 +5861,7 @@
       <c r="F290" s="15"/>
       <c r="G290" s="55"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="16" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
@@ -5841,7 +5873,7 @@
       <c r="F291" s="17"/>
       <c r="G291" s="56"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
@@ -5853,7 +5885,7 @@
       <c r="F292" s="15"/>
       <c r="G292" s="55"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="16" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
@@ -5865,7 +5897,7 @@
       <c r="F293" s="17"/>
       <c r="G293" s="56"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
@@ -5877,7 +5909,7 @@
       <c r="F294" s="15"/>
       <c r="G294" s="55"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="16" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
@@ -5889,7 +5921,7 @@
       <c r="F295" s="17"/>
       <c r="G295" s="56"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
@@ -5901,7 +5933,7 @@
       <c r="F296" s="15"/>
       <c r="G296" s="55"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="16" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
@@ -5913,7 +5945,7 @@
       <c r="F297" s="17"/>
       <c r="G297" s="56"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
@@ -5925,7 +5957,7 @@
       <c r="F298" s="15"/>
       <c r="G298" s="55"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="16" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
@@ -5937,7 +5969,7 @@
       <c r="F299" s="17"/>
       <c r="G299" s="56"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
@@ -5949,7 +5981,7 @@
       <c r="F300" s="15"/>
       <c r="G300" s="55"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="16" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
@@ -5961,7 +5993,7 @@
       <c r="F301" s="17"/>
       <c r="G301" s="56"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
@@ -5973,7 +6005,7 @@
       <c r="F302" s="15"/>
       <c r="G302" s="55"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="16" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
@@ -5985,7 +6017,7 @@
       <c r="F303" s="17"/>
       <c r="G303" s="56"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
@@ -5997,7 +6029,7 @@
       <c r="F304" s="15"/>
       <c r="G304" s="55"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="16" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
@@ -6009,7 +6041,7 @@
       <c r="F305" s="17"/>
       <c r="G305" s="56"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
@@ -6021,7 +6053,7 @@
       <c r="F306" s="15"/>
       <c r="G306" s="55"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="16" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
@@ -6033,7 +6065,7 @@
       <c r="F307" s="17"/>
       <c r="G307" s="56"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
@@ -6045,7 +6077,7 @@
       <c r="F308" s="15"/>
       <c r="G308" s="55"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="16" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
@@ -6057,7 +6089,7 @@
       <c r="F309" s="17"/>
       <c r="G309" s="56"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
@@ -6069,7 +6101,7 @@
       <c r="F310" s="15"/>
       <c r="G310" s="55"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="16" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
@@ -6081,7 +6113,7 @@
       <c r="F311" s="17"/>
       <c r="G311" s="56"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
@@ -6093,7 +6125,7 @@
       <c r="F312" s="15"/>
       <c r="G312" s="55"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="16" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
@@ -6105,7 +6137,7 @@
       <c r="F313" s="17"/>
       <c r="G313" s="56"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
@@ -6117,7 +6149,7 @@
       <c r="F314" s="15"/>
       <c r="G314" s="55"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="16" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
@@ -6129,7 +6161,7 @@
       <c r="F315" s="17"/>
       <c r="G315" s="56"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
@@ -6141,7 +6173,7 @@
       <c r="F316" s="15"/>
       <c r="G316" s="55"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="16" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
@@ -6153,7 +6185,7 @@
       <c r="F317" s="17"/>
       <c r="G317" s="56"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="8" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
@@ -6165,7 +6197,7 @@
       <c r="F318" s="15"/>
       <c r="G318" s="55"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="16" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
@@ -6177,7 +6209,7 @@
       <c r="F319" s="17"/>
       <c r="G319" s="56"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
@@ -6189,7 +6221,7 @@
       <c r="F320" s="15"/>
       <c r="G320" s="55"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="16" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
@@ -6201,7 +6233,7 @@
       <c r="F321" s="17"/>
       <c r="G321" s="56"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
@@ -6213,7 +6245,7 @@
       <c r="F322" s="15"/>
       <c r="G322" s="55"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="16" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
@@ -6225,7 +6257,7 @@
       <c r="F323" s="17"/>
       <c r="G323" s="56"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
@@ -6237,7 +6269,7 @@
       <c r="F324" s="15"/>
       <c r="G324" s="55"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="16" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
@@ -6249,7 +6281,7 @@
       <c r="F325" s="17"/>
       <c r="G325" s="56"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
@@ -6261,7 +6293,7 @@
       <c r="F326" s="15"/>
       <c r="G326" s="55"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="16" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
@@ -6273,7 +6305,7 @@
       <c r="F327" s="17"/>
       <c r="G327" s="56"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
@@ -6285,7 +6317,7 @@
       <c r="F328" s="15"/>
       <c r="G328" s="55"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="16" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
@@ -6297,7 +6329,7 @@
       <c r="F329" s="17"/>
       <c r="G329" s="56"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
@@ -6309,7 +6341,7 @@
       <c r="F330" s="15"/>
       <c r="G330" s="55"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="16" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
@@ -6321,7 +6353,7 @@
       <c r="F331" s="17"/>
       <c r="G331" s="56"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
@@ -6333,7 +6365,7 @@
       <c r="F332" s="15"/>
       <c r="G332" s="55"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="16" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
@@ -6345,7 +6377,7 @@
       <c r="F333" s="17"/>
       <c r="G333" s="56"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
@@ -6357,7 +6389,7 @@
       <c r="F334" s="15"/>
       <c r="G334" s="55"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="16" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
@@ -6369,7 +6401,7 @@
       <c r="F335" s="17"/>
       <c r="G335" s="56"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
@@ -6381,7 +6413,7 @@
       <c r="F336" s="15"/>
       <c r="G336" s="55"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="16" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
@@ -6393,7 +6425,7 @@
       <c r="F337" s="17"/>
       <c r="G337" s="56"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
@@ -6405,7 +6437,7 @@
       <c r="F338" s="15"/>
       <c r="G338" s="55"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="16" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
@@ -6417,7 +6449,7 @@
       <c r="F339" s="17"/>
       <c r="G339" s="56"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
@@ -6429,7 +6461,7 @@
       <c r="F340" s="15"/>
       <c r="G340" s="55"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="16" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
@@ -6441,7 +6473,7 @@
       <c r="F341" s="17"/>
       <c r="G341" s="56"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
@@ -6453,7 +6485,7 @@
       <c r="F342" s="15"/>
       <c r="G342" s="55"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="16" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
@@ -6465,7 +6497,7 @@
       <c r="F343" s="17"/>
       <c r="G343" s="56"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
@@ -6477,7 +6509,7 @@
       <c r="F344" s="15"/>
       <c r="G344" s="55"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="16" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
@@ -6489,7 +6521,7 @@
       <c r="F345" s="17"/>
       <c r="G345" s="56"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
@@ -6501,7 +6533,7 @@
       <c r="F346" s="15"/>
       <c r="G346" s="55"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="16" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
@@ -6513,7 +6545,7 @@
       <c r="F347" s="17"/>
       <c r="G347" s="56"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
@@ -6525,7 +6557,7 @@
       <c r="F348" s="15"/>
       <c r="G348" s="55"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="16" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
@@ -6537,7 +6569,7 @@
       <c r="F349" s="17"/>
       <c r="G349" s="56"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
@@ -6549,7 +6581,7 @@
       <c r="F350" s="15"/>
       <c r="G350" s="55"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="16" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
@@ -6561,7 +6593,7 @@
       <c r="F351" s="17"/>
       <c r="G351" s="56"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
@@ -6573,7 +6605,7 @@
       <c r="F352" s="15"/>
       <c r="G352" s="55"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="16" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
@@ -6585,7 +6617,7 @@
       <c r="F353" s="17"/>
       <c r="G353" s="56"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="8" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
@@ -6597,7 +6629,7 @@
       <c r="F354" s="15"/>
       <c r="G354" s="55"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="16" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
@@ -6609,7 +6641,7 @@
       <c r="F355" s="17"/>
       <c r="G355" s="56"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
@@ -6621,7 +6653,7 @@
       <c r="F356" s="15"/>
       <c r="G356" s="55"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="16" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
@@ -6633,7 +6665,7 @@
       <c r="F357" s="17"/>
       <c r="G357" s="56"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
@@ -6645,7 +6677,7 @@
       <c r="F358" s="15"/>
       <c r="G358" s="55"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="16" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
@@ -6657,7 +6689,7 @@
       <c r="F359" s="17"/>
       <c r="G359" s="56"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
@@ -6669,7 +6701,7 @@
       <c r="F360" s="15"/>
       <c r="G360" s="55"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="16" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
@@ -6681,7 +6713,7 @@
       <c r="F361" s="17"/>
       <c r="G361" s="56"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
@@ -6693,7 +6725,7 @@
       <c r="F362" s="15"/>
       <c r="G362" s="55"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="16" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
@@ -6705,7 +6737,7 @@
       <c r="F363" s="17"/>
       <c r="G363" s="56"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="8" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
@@ -6717,7 +6749,7 @@
       <c r="F364" s="15"/>
       <c r="G364" s="55"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="16" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
@@ -6729,7 +6761,7 @@
       <c r="F365" s="17"/>
       <c r="G365" s="56"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="8" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
@@ -6741,7 +6773,7 @@
       <c r="F366" s="15"/>
       <c r="G366" s="55"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="16" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
@@ -6753,7 +6785,7 @@
       <c r="F367" s="17"/>
       <c r="G367" s="56"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="8" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
@@ -6765,7 +6797,7 @@
       <c r="F368" s="15"/>
       <c r="G368" s="55"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="16" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
@@ -6777,7 +6809,7 @@
       <c r="F369" s="17"/>
       <c r="G369" s="56"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
@@ -6789,7 +6821,7 @@
       <c r="F370" s="15"/>
       <c r="G370" s="55"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="16" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
@@ -6801,7 +6833,7 @@
       <c r="F371" s="17"/>
       <c r="G371" s="56"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="8" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
@@ -6813,7 +6845,7 @@
       <c r="F372" s="15"/>
       <c r="G372" s="55"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="16" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
@@ -6825,7 +6857,7 @@
       <c r="F373" s="17"/>
       <c r="G373" s="56"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="8" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
@@ -6837,7 +6869,7 @@
       <c r="F374" s="15"/>
       <c r="G374" s="55"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="16" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
@@ -6849,7 +6881,7 @@
       <c r="F375" s="17"/>
       <c r="G375" s="56"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="8" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
@@ -6861,7 +6893,7 @@
       <c r="F376" s="15"/>
       <c r="G376" s="55"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="16" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
@@ -6873,7 +6905,7 @@
       <c r="F377" s="17"/>
       <c r="G377" s="56"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="8" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
@@ -6885,7 +6917,7 @@
       <c r="F378" s="15"/>
       <c r="G378" s="55"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="16" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
@@ -6897,7 +6929,7 @@
       <c r="F379" s="17"/>
       <c r="G379" s="56"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="8" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
@@ -6909,7 +6941,7 @@
       <c r="F380" s="15"/>
       <c r="G380" s="55"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="16" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
@@ -6921,7 +6953,7 @@
       <c r="F381" s="17"/>
       <c r="G381" s="56"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="8" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
@@ -6933,7 +6965,7 @@
       <c r="F382" s="15"/>
       <c r="G382" s="55"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="16" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
@@ -6945,7 +6977,7 @@
       <c r="F383" s="17"/>
       <c r="G383" s="56"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
@@ -6957,7 +6989,7 @@
       <c r="F384" s="15"/>
       <c r="G384" s="55"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="16" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
@@ -6969,7 +7001,7 @@
       <c r="F385" s="17"/>
       <c r="G385" s="56"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
@@ -6981,7 +7013,7 @@
       <c r="F386" s="15"/>
       <c r="G386" s="55"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="16" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
@@ -6993,7 +7025,7 @@
       <c r="F387" s="17"/>
       <c r="G387" s="56"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
@@ -7005,7 +7037,7 @@
       <c r="F388" s="15"/>
       <c r="G388" s="55"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="16" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
@@ -7017,7 +7049,7 @@
       <c r="F389" s="17"/>
       <c r="G389" s="56"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="8" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
@@ -7029,7 +7061,7 @@
       <c r="F390" s="15"/>
       <c r="G390" s="55"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="16" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
@@ -7041,7 +7073,7 @@
       <c r="F391" s="17"/>
       <c r="G391" s="56"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
@@ -7053,7 +7085,7 @@
       <c r="F392" s="15"/>
       <c r="G392" s="55"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="16" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
@@ -7065,7 +7097,7 @@
       <c r="F393" s="17"/>
       <c r="G393" s="56"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="8" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
@@ -7077,7 +7109,7 @@
       <c r="F394" s="15"/>
       <c r="G394" s="55"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="16" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
@@ -7089,7 +7121,7 @@
       <c r="F395" s="17"/>
       <c r="G395" s="56"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="8" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
@@ -7101,7 +7133,7 @@
       <c r="F396" s="15"/>
       <c r="G396" s="55"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="16" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
@@ -7113,7 +7145,7 @@
       <c r="F397" s="17"/>
       <c r="G397" s="56"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="8" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
@@ -7125,7 +7157,7 @@
       <c r="F398" s="15"/>
       <c r="G398" s="55"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="16" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
@@ -7137,7 +7169,7 @@
       <c r="F399" s="17"/>
       <c r="G399" s="56"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="8" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
@@ -7149,7 +7181,7 @@
       <c r="F400" s="15"/>
       <c r="G400" s="55"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="16" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
@@ -7161,7 +7193,7 @@
       <c r="F401" s="17"/>
       <c r="G401" s="56"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="8" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
@@ -7173,7 +7205,7 @@
       <c r="F402" s="15"/>
       <c r="G402" s="55"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="16" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
@@ -7185,7 +7217,7 @@
       <c r="F403" s="17"/>
       <c r="G403" s="56"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="8" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
@@ -7197,7 +7229,7 @@
       <c r="F404" s="15"/>
       <c r="G404" s="55"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="16" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
@@ -7209,7 +7241,7 @@
       <c r="F405" s="17"/>
       <c r="G405" s="56"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="8" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
@@ -7221,7 +7253,7 @@
       <c r="F406" s="15"/>
       <c r="G406" s="55"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="16" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
@@ -7233,7 +7265,7 @@
       <c r="F407" s="17"/>
       <c r="G407" s="56"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="8" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
@@ -7245,7 +7277,7 @@
       <c r="F408" s="15"/>
       <c r="G408" s="55"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="16" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
@@ -7257,7 +7289,7 @@
       <c r="F409" s="17"/>
       <c r="G409" s="56"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="8" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
@@ -7269,7 +7301,7 @@
       <c r="F410" s="15"/>
       <c r="G410" s="55"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="16" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
@@ -7281,7 +7313,7 @@
       <c r="F411" s="17"/>
       <c r="G411" s="56"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="8" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
@@ -7293,7 +7325,7 @@
       <c r="F412" s="15"/>
       <c r="G412" s="55"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="16" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
@@ -7305,7 +7337,7 @@
       <c r="F413" s="17"/>
       <c r="G413" s="56"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="8" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
@@ -7317,7 +7349,7 @@
       <c r="F414" s="15"/>
       <c r="G414" s="55"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="16" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
@@ -7329,7 +7361,7 @@
       <c r="F415" s="17"/>
       <c r="G415" s="56"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="8" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
@@ -7341,7 +7373,7 @@
       <c r="F416" s="15"/>
       <c r="G416" s="55"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="16" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
@@ -7353,7 +7385,7 @@
       <c r="F417" s="17"/>
       <c r="G417" s="56"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="8" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
@@ -7365,7 +7397,7 @@
       <c r="F418" s="15"/>
       <c r="G418" s="55"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="16" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
@@ -7377,7 +7409,7 @@
       <c r="F419" s="17"/>
       <c r="G419" s="56"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="8" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
@@ -7389,7 +7421,7 @@
       <c r="F420" s="15"/>
       <c r="G420" s="55"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="16" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
@@ -7401,7 +7433,7 @@
       <c r="F421" s="17"/>
       <c r="G421" s="56"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="8" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
@@ -7413,7 +7445,7 @@
       <c r="F422" s="15"/>
       <c r="G422" s="55"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="16" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
@@ -7425,7 +7457,7 @@
       <c r="F423" s="17"/>
       <c r="G423" s="56"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="8" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
@@ -7437,7 +7469,7 @@
       <c r="F424" s="15"/>
       <c r="G424" s="55"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="16" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
@@ -7449,7 +7481,7 @@
       <c r="F425" s="17"/>
       <c r="G425" s="56"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="8" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
@@ -7461,7 +7493,7 @@
       <c r="F426" s="15"/>
       <c r="G426" s="55"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="16" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
@@ -7473,7 +7505,7 @@
       <c r="F427" s="17"/>
       <c r="G427" s="56"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="8" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
@@ -7485,7 +7517,7 @@
       <c r="F428" s="15"/>
       <c r="G428" s="55"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="16" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
@@ -7497,7 +7529,7 @@
       <c r="F429" s="17"/>
       <c r="G429" s="56"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="8" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
@@ -7509,7 +7541,7 @@
       <c r="F430" s="15"/>
       <c r="G430" s="55"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="16" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
@@ -7521,7 +7553,7 @@
       <c r="F431" s="17"/>
       <c r="G431" s="56"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="8" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
@@ -7533,7 +7565,7 @@
       <c r="F432" s="15"/>
       <c r="G432" s="55"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="16" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
@@ -7545,7 +7577,7 @@
       <c r="F433" s="17"/>
       <c r="G433" s="56"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="8" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
@@ -7557,7 +7589,7 @@
       <c r="F434" s="15"/>
       <c r="G434" s="55"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="16" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
@@ -7569,7 +7601,7 @@
       <c r="F435" s="17"/>
       <c r="G435" s="56"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="8" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
@@ -7581,7 +7613,7 @@
       <c r="F436" s="15"/>
       <c r="G436" s="55"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="16" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
@@ -7593,7 +7625,7 @@
       <c r="F437" s="17"/>
       <c r="G437" s="56"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="8" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
@@ -7605,7 +7637,7 @@
       <c r="F438" s="15"/>
       <c r="G438" s="55"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="16" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
@@ -7617,7 +7649,7 @@
       <c r="F439" s="17"/>
       <c r="G439" s="56"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="8" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
@@ -7629,7 +7661,7 @@
       <c r="F440" s="15"/>
       <c r="G440" s="55"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="16" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
@@ -7641,7 +7673,7 @@
       <c r="F441" s="17"/>
       <c r="G441" s="56"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="8" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
@@ -7653,7 +7685,7 @@
       <c r="F442" s="15"/>
       <c r="G442" s="55"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="16" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
@@ -7665,7 +7697,7 @@
       <c r="F443" s="17"/>
       <c r="G443" s="56"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="8" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
@@ -7677,7 +7709,7 @@
       <c r="F444" s="15"/>
       <c r="G444" s="55"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="16" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
@@ -7689,7 +7721,7 @@
       <c r="F445" s="17"/>
       <c r="G445" s="56"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="8" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
@@ -7701,7 +7733,7 @@
       <c r="F446" s="15"/>
       <c r="G446" s="55"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="16" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
@@ -7713,7 +7745,7 @@
       <c r="F447" s="17"/>
       <c r="G447" s="56"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="8" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
@@ -7725,7 +7757,7 @@
       <c r="F448" s="15"/>
       <c r="G448" s="55"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="16" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
@@ -7737,7 +7769,7 @@
       <c r="F449" s="17"/>
       <c r="G449" s="56"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="8" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
@@ -7749,7 +7781,7 @@
       <c r="F450" s="15"/>
       <c r="G450" s="55"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="16" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
@@ -7761,7 +7793,7 @@
       <c r="F451" s="17"/>
       <c r="G451" s="56"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="8" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
@@ -7773,7 +7805,7 @@
       <c r="F452" s="15"/>
       <c r="G452" s="55"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="16" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
@@ -7785,7 +7817,7 @@
       <c r="F453" s="17"/>
       <c r="G453" s="56"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="8" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
@@ -7797,7 +7829,7 @@
       <c r="F454" s="15"/>
       <c r="G454" s="55"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="16" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
@@ -7809,7 +7841,7 @@
       <c r="F455" s="17"/>
       <c r="G455" s="56"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="8" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
@@ -7821,7 +7853,7 @@
       <c r="F456" s="15"/>
       <c r="G456" s="55"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="16" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
@@ -7833,7 +7865,7 @@
       <c r="F457" s="17"/>
       <c r="G457" s="56"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="8" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
@@ -7845,7 +7877,7 @@
       <c r="F458" s="15"/>
       <c r="G458" s="55"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="16" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
@@ -7857,7 +7889,7 @@
       <c r="F459" s="17"/>
       <c r="G459" s="56"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="8" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
@@ -7869,7 +7901,7 @@
       <c r="F460" s="15"/>
       <c r="G460" s="55"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="16" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
@@ -7881,7 +7913,7 @@
       <c r="F461" s="17"/>
       <c r="G461" s="56"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="8" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
@@ -7893,7 +7925,7 @@
       <c r="F462" s="15"/>
       <c r="G462" s="55"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="16" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
@@ -7905,7 +7937,7 @@
       <c r="F463" s="17"/>
       <c r="G463" s="56"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="8" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
@@ -7917,7 +7949,7 @@
       <c r="F464" s="15"/>
       <c r="G464" s="55"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="16" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
@@ -7929,7 +7961,7 @@
       <c r="F465" s="17"/>
       <c r="G465" s="56"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="8" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
@@ -7941,7 +7973,7 @@
       <c r="F466" s="15"/>
       <c r="G466" s="55"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="16" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
@@ -7953,7 +7985,7 @@
       <c r="F467" s="17"/>
       <c r="G467" s="56"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="8" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
@@ -7965,7 +7997,7 @@
       <c r="F468" s="15"/>
       <c r="G468" s="55"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="16" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
@@ -7977,7 +8009,7 @@
       <c r="F469" s="17"/>
       <c r="G469" s="56"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="8" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
@@ -7989,7 +8021,7 @@
       <c r="F470" s="15"/>
       <c r="G470" s="55"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="16" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
@@ -8001,7 +8033,7 @@
       <c r="F471" s="17"/>
       <c r="G471" s="56"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="8" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
@@ -8013,7 +8045,7 @@
       <c r="F472" s="15"/>
       <c r="G472" s="55"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="16" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
@@ -8025,7 +8057,7 @@
       <c r="F473" s="17"/>
       <c r="G473" s="56"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="8" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
@@ -8037,7 +8069,7 @@
       <c r="F474" s="15"/>
       <c r="G474" s="55"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="16" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
@@ -8049,7 +8081,7 @@
       <c r="F475" s="17"/>
       <c r="G475" s="56"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="8" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
@@ -8061,7 +8093,7 @@
       <c r="F476" s="15"/>
       <c r="G476" s="55"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="16" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
@@ -8073,7 +8105,7 @@
       <c r="F477" s="17"/>
       <c r="G477" s="56"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="8" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
@@ -8085,7 +8117,7 @@
       <c r="F478" s="15"/>
       <c r="G478" s="55"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="16" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
@@ -8097,7 +8129,7 @@
       <c r="F479" s="17"/>
       <c r="G479" s="56"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="8" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
@@ -8109,7 +8141,7 @@
       <c r="F480" s="15"/>
       <c r="G480" s="55"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="16" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
@@ -8121,7 +8153,7 @@
       <c r="F481" s="17"/>
       <c r="G481" s="56"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="8" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
@@ -8133,7 +8165,7 @@
       <c r="F482" s="15"/>
       <c r="G482" s="55"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="16" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
@@ -8145,7 +8177,7 @@
       <c r="F483" s="17"/>
       <c r="G483" s="56"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="8" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
@@ -8157,7 +8189,7 @@
       <c r="F484" s="15"/>
       <c r="G484" s="55"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="16" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
@@ -8169,7 +8201,7 @@
       <c r="F485" s="17"/>
       <c r="G485" s="56"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="8" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
@@ -8181,7 +8213,7 @@
       <c r="F486" s="15"/>
       <c r="G486" s="55"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="16" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
@@ -8193,7 +8225,7 @@
       <c r="F487" s="17"/>
       <c r="G487" s="56"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="8" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
@@ -8205,7 +8237,7 @@
       <c r="F488" s="15"/>
       <c r="G488" s="55"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="16" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
@@ -8217,7 +8249,7 @@
       <c r="F489" s="17"/>
       <c r="G489" s="56"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="8" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
@@ -8229,7 +8261,7 @@
       <c r="F490" s="15"/>
       <c r="G490" s="55"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="16" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
@@ -8241,7 +8273,7 @@
       <c r="F491" s="17"/>
       <c r="G491" s="56"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="8" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
@@ -8253,7 +8285,7 @@
       <c r="F492" s="15"/>
       <c r="G492" s="55"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="16" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
@@ -8265,7 +8297,7 @@
       <c r="F493" s="17"/>
       <c r="G493" s="56"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="8" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
@@ -8277,7 +8309,7 @@
       <c r="F494" s="15"/>
       <c r="G494" s="55"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="16" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
@@ -8289,7 +8321,7 @@
       <c r="F495" s="17"/>
       <c r="G495" s="56"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="8" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
@@ -8301,7 +8333,7 @@
       <c r="F496" s="15"/>
       <c r="G496" s="55"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="16" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
@@ -8313,7 +8345,7 @@
       <c r="F497" s="17"/>
       <c r="G497" s="56"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="8" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
@@ -8325,7 +8357,7 @@
       <c r="F498" s="15"/>
       <c r="G498" s="55"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="16" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
@@ -8337,7 +8369,7 @@
       <c r="F499" s="17"/>
       <c r="G499" s="56"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="8" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
@@ -8349,7 +8381,7 @@
       <c r="F500" s="15"/>
       <c r="G500" s="55"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="16" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
@@ -8361,7 +8393,7 @@
       <c r="F501" s="17"/>
       <c r="G501" s="56"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="8" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
@@ -8373,7 +8405,7 @@
       <c r="F502" s="15"/>
       <c r="G502" s="55"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="16" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
@@ -8385,7 +8417,7 @@
       <c r="F503" s="17"/>
       <c r="G503" s="56"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="8" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
@@ -8397,7 +8429,7 @@
       <c r="F504" s="15"/>
       <c r="G504" s="55"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="16" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
@@ -8409,7 +8441,7 @@
       <c r="F505" s="17"/>
       <c r="G505" s="56"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="8" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
@@ -8421,7 +8453,7 @@
       <c r="F506" s="15"/>
       <c r="G506" s="55"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="16" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
@@ -8433,7 +8465,7 @@
       <c r="F507" s="17"/>
       <c r="G507" s="56"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="8" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
@@ -8445,7 +8477,7 @@
       <c r="F508" s="15"/>
       <c r="G508" s="55"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="16" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
@@ -8457,7 +8489,7 @@
       <c r="F509" s="17"/>
       <c r="G509" s="56"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="8" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
@@ -8469,7 +8501,7 @@
       <c r="F510" s="15"/>
       <c r="G510" s="55"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="16" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
@@ -8481,7 +8513,7 @@
       <c r="F511" s="17"/>
       <c r="G511" s="56"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="8" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
@@ -8493,7 +8525,7 @@
       <c r="F512" s="15"/>
       <c r="G512" s="55"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="16" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
@@ -8505,7 +8537,7 @@
       <c r="F513" s="17"/>
       <c r="G513" s="56"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="8" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
@@ -8517,7 +8549,7 @@
       <c r="F514" s="15"/>
       <c r="G514" s="55"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="16" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
@@ -8529,7 +8561,7 @@
       <c r="F515" s="17"/>
       <c r="G515" s="56"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="8" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
@@ -8541,7 +8573,7 @@
       <c r="F516" s="15"/>
       <c r="G516" s="55"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="16" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
@@ -8553,7 +8585,7 @@
       <c r="F517" s="17"/>
       <c r="G517" s="56"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="8" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
@@ -8565,7 +8597,7 @@
       <c r="F518" s="15"/>
       <c r="G518" s="55"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="16" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
         <v/>
@@ -8577,7 +8609,7 @@
       <c r="F519" s="17"/>
       <c r="G519" s="56"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="8" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
         <v/>
@@ -8589,7 +8621,7 @@
       <c r="F520" s="15"/>
       <c r="G520" s="55"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="16" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
         <v/>
@@ -8601,7 +8633,7 @@
       <c r="F521" s="17"/>
       <c r="G521" s="56"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
         <v/>
@@ -8613,7 +8645,7 @@
       <c r="F522" s="15"/>
       <c r="G522" s="55"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="16" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
         <v/>
@@ -8625,7 +8657,7 @@
       <c r="F523" s="17"/>
       <c r="G523" s="56"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="8" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
         <v/>
@@ -8637,7 +8669,7 @@
       <c r="F524" s="15"/>
       <c r="G524" s="55"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="16" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
         <v/>
@@ -8649,7 +8681,7 @@
       <c r="F525" s="17"/>
       <c r="G525" s="56"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="8" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
         <v/>
@@ -8661,7 +8693,7 @@
       <c r="F526" s="15"/>
       <c r="G526" s="55"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="16" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
         <v/>
@@ -8673,7 +8705,7 @@
       <c r="F527" s="17"/>
       <c r="G527" s="56"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="8" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
         <v/>
@@ -8685,7 +8717,7 @@
       <c r="F528" s="15"/>
       <c r="G528" s="55"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="16" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
         <v/>
@@ -8697,7 +8729,7 @@
       <c r="F529" s="17"/>
       <c r="G529" s="56"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="8" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
         <v/>
@@ -8709,7 +8741,7 @@
       <c r="F530" s="15"/>
       <c r="G530" s="55"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="16" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
         <v/>
@@ -8721,7 +8753,7 @@
       <c r="F531" s="17"/>
       <c r="G531" s="56"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="8" t="str">
         <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
         <v/>
@@ -8740,28 +8772,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8793,14 +8825,14 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.8984375" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="10.875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8814,7 +8846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8832,14 +8864,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>300</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8847,10 +8879,10 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.34722222222222221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8868,7 +8900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8886,7 +8918,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>60</v>
@@ -8904,7 +8936,7 @@
         <v>6.9444444444444448E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C9,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8922,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>180</v>
@@ -8940,7 +8972,7 @@
         <v>0.18402777777777779</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -8958,16 +8990,16 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.63194444444444442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.71527777777777779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D14" s="38"/>
     </row>
   </sheetData>
@@ -8978,12 +9010,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9210,20 +9244,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9248,12 +9283,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Journal-de-Travail_NademoYosef.xlsx
+++ b/Documentation/Journal-de-Travail_NademoYosef.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Passion_lecture_Mobile\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ED0A1C-F9D5-4691-9369-1144460C0F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F43F64-226A-4F39-B8B1-B643501EBC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="31440" yWindow="435" windowWidth="23520" windowHeight="14235" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="3960" yWindow="0" windowWidth="23520" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>insomnia, VS, xaml</t>
+  </si>
+  <si>
+    <t>Backend(toutes les routes)</t>
+  </si>
+  <si>
+    <t>MVVM application des routes dans les ecrans d'application mobile</t>
+  </si>
+  <si>
+    <t>Manual Test Scenarios for EPUB Reader Application</t>
+  </si>
+  <si>
+    <t>test_scenarios.md</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1148,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43055555555555558</c:v>
+                  <c:v>0.51388888888888884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.0833333333333332E-2</c:v>
@@ -2065,9 +2077,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2120,7 +2132,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 17 heurs 10 minutes</v>
+        <v>0 jours 19 heurs 39 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2135,15 +2147,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>1030</v>
+        <v>1180</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2700,11 +2712,13 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="str">
+      <c r="A28" s="8">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v/>
-      </c>
-      <c r="B28" s="46"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="46">
+        <v>45793</v>
+      </c>
       <c r="C28" s="47"/>
       <c r="D28" s="48">
         <v>30</v>
@@ -2718,47 +2732,75 @@
       <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="str">
+      <c r="A29" s="16">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
-        <v/>
-      </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="50">
+        <v>45800</v>
+      </c>
+      <c r="C29" s="51">
+        <v>1</v>
+      </c>
       <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="35"/>
+      <c r="E29" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>55</v>
+      </c>
       <c r="G29" s="56"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="str">
+      <c r="A30" s="8">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
-        <v/>
-      </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="B30" s="46">
+        <v>45800</v>
+      </c>
+      <c r="C30" s="47">
+        <v>1</v>
+      </c>
       <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="36"/>
+      <c r="E30" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>56</v>
+      </c>
       <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="str">
+      <c r="A31" s="16">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
-        <v/>
-      </c>
-      <c r="B31" s="50"/>
+        <v>21</v>
+      </c>
+      <c r="B31" s="50">
+        <v>45800</v>
+      </c>
       <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="56"/>
+      <c r="D31" s="52">
+        <v>30</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="56" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="str">
+      <c r="A32" s="8">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
-        <v/>
-      </c>
-      <c r="B32" s="46"/>
+        <v>21</v>
+      </c>
+      <c r="B32" s="46">
+        <v>45800</v>
+      </c>
       <c r="C32" s="47"/>
       <c r="D32" s="48"/>
       <c r="E32" s="49"/>
@@ -8867,7 +8909,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -8879,7 +8921,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.43055555555555558</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8889,7 +8931,7 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C6" s="26" t="str">
         <f>'Journal de travail'!M10</f>
@@ -8897,7 +8939,7 @@
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8996,7 +9038,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.71527777777777779</v>
+        <v>0.81944444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9021,6 +9063,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9243,15 +9294,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
@@ -9264,6 +9306,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9280,12 +9330,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/Journal-de-Travail_NademoYosef.xlsx
+++ b/Documentation/Journal-de-Travail_NademoYosef.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Passion_lecture_Mobile\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F43F64-226A-4F39-B8B1-B643501EBC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FD9936-843F-4C38-909B-1001649ADC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="0" windowWidth="23520" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="3960" yWindow="540" windowWidth="23520" windowHeight="14235" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -208,9 +208,6 @@
     <t>insomnia, VS, xaml</t>
   </si>
   <si>
-    <t>Backend(toutes les routes)</t>
-  </si>
-  <si>
     <t>MVVM application des routes dans les ecrans d'application mobile</t>
   </si>
   <si>
@@ -218,6 +215,18 @@
   </si>
   <si>
     <t>test_scenarios.md</t>
+  </si>
+  <si>
+    <t>J'ai passé 10 minutes à travailler sur JDT, marqué tous les points de mon proccesus d'Implémentation</t>
+  </si>
+  <si>
+    <t>Models, ViewModels; Code-behind; debugging; ecrans ALL</t>
+  </si>
+  <si>
+    <t>insomnia</t>
+  </si>
+  <si>
+    <t>Backend(toutes les routes) ; insomnia modification des routes (Export)</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -527,6 +536,17 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1154,7 +1174,7 @@
                   <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.9444444444444448E-2</c:v>
@@ -2078,8 +2098,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2114,11 +2134,11 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2132,7 +2152,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 19 heurs 39 minutes</v>
+        <v>0 jours 19 heurs 49 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2151,20 +2171,20 @@
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="61"/>
     </row>
     <row r="6" spans="1:15" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -2747,9 +2767,11 @@
         <v>4</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="56"/>
+        <v>61</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
@@ -2767,9 +2789,11 @@
         <v>4</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="55"/>
+        <v>55</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
@@ -2787,10 +2811,10 @@
         <v>5</v>
       </c>
       <c r="F31" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="56" t="s">
         <v>57</v>
-      </c>
-      <c r="G31" s="56" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2802,9 +2826,15 @@
         <v>45800</v>
       </c>
       <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="36"/>
+      <c r="D32" s="52">
+        <v>10</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>58</v>
+      </c>
       <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2814,9 +2844,9 @@
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="51"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="35"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="56"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -8813,7 +8843,7 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E532">
+  <conditionalFormatting sqref="E34:E532 E7:E32">
     <cfRule type="expression" dxfId="16" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
@@ -8843,10 +8873,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C532" xr:uid="{9D52E29F-610D-40B2-B3CC-F94A741DD978}">
       <formula1>$N$7:$N$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D532" xr:uid="{46510F84-8BCC-4BD6-9A19-9F03ACD74D05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34:D532 D7:D32" xr:uid="{46510F84-8BCC-4BD6-9A19-9F03ACD74D05}">
       <formula1>$O$7:$O$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E532" xr:uid="{5717AF9A-5C26-4256-9473-8948342ED6D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34:E532 E7:E32" xr:uid="{5717AF9A-5C26-4256-9473-8948342ED6D3}">
       <formula1>$M$7:$M$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -8949,7 +8979,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C7" s="27" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8957,7 +8987,7 @@
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9038,7 +9068,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.81944444444444442</v>
+        <v>0.82638888888888884</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Documentation/Journal-de-Travail_NademoYosef.xlsx
+++ b/Documentation/Journal-de-Travail_NademoYosef.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Passion_lecture_Mobile\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FD9936-843F-4C38-909B-1001649ADC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE6E718-C78F-41A2-8622-875AD8333931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="540" windowWidth="23520" windowHeight="14235" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Backend(toutes les routes) ; insomnia modification des routes (Export)</t>
+  </si>
+  <si>
+    <t>docker script SQL</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1171,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51388888888888884</c:v>
+                  <c:v>0.53472222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.0833333333333332E-2</c:v>
@@ -2099,7 +2102,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2152,7 +2155,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 19 heurs 49 minutes</v>
+        <v>0 jours 20 heurs 19 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2171,11 +2174,11 @@
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>1190</v>
+        <v>1220</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2850,15 +2853,23 @@
       <c r="G33" s="56"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="str">
+      <c r="A34" s="8">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
-        <v/>
-      </c>
-      <c r="B34" s="46"/>
+        <v>21</v>
+      </c>
+      <c r="B34" s="46">
+        <v>45800</v>
+      </c>
       <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="35"/>
+      <c r="D34" s="48">
+        <v>30</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -8943,7 +8954,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8951,7 +8962,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.51388888888888884</v>
+        <v>0.53472222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9068,7 +9079,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.82638888888888884</v>
+        <v>0.84722222222222221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9093,15 +9104,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9324,6 +9326,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
@@ -9336,14 +9347,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9360,4 +9363,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/Journal-de-Travail_NademoYosef.xlsx
+++ b/Documentation/Journal-de-Travail_NademoYosef.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Passion_lecture_Mobile\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdjdj\Documents\GitHub\Passion_lecture_Mobile\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE6E718-C78F-41A2-8622-875AD8333931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C39EAD2-9637-424F-A671-D649C4535416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="540" windowWidth="23520" windowHeight="14235" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -231,6 +231,54 @@
   <si>
     <t>docker script SQL</t>
   </si>
+  <si>
+    <t>MAUI MVVM</t>
+  </si>
+  <si>
+    <t>configuration service that will handle the API endpoint configuration; A…
+…piConfiguration.cs ; ApiPage.xaml; tags works✅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you're developing/testing on an Android emulator:
+10.0.2.2 is a special IP address that Android emulator uses to connect to your computer's localhost
+So when your app runs in the emulator and tries to reach 10.0.2.2:3000, it actually connects to localhost:3000 on your development machine where Docker is runnings
+</t>
+  </si>
+  <si>
+    <t>ApiPageVM; triage par tags; triage par dates ;tags xaml ; tags model; li…
+…braryPage.xaml ;libraryPageVM;  BooksModel.cs;  HttpClient</t>
+  </si>
+  <si>
+    <t>librarypage, filter(year, tags), research, importpage; readPage; api
+readpage[inprgress]</t>
+  </si>
+  <si>
+    <t>Instructions ! Update README.md</t>
+  </si>
+  <si>
+    <t>ReadPage; ReadPageViewModel; LibraryPage ; app.js(image cover)
+required adm-zip package for handling EPUB files:
+ npm install adm-zip</t>
+  </si>
+  <si>
+    <t>Insomnia</t>
+  </si>
+  <si>
+    <t>general routes</t>
+  </si>
+  <si>
+    <t>api(BLOB✅ corrected); ApiService(right path and debuuging + console.log)…
+…; Covers ✅</t>
+  </si>
+  <si>
+    <t>ReadnigPage(UI,apiPaths,buttons,lecture)</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tests manuel</t>
+  </si>
 </sst>
 </file>
 
@@ -413,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -542,17 +590,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -565,6 +602,80 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -737,80 +848,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -833,7 +870,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -900,7 +937,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1171,13 +1208,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53472222222222221</c:v>
+                  <c:v>1.0486111111111112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.9444444444444448E-2</c:v>
@@ -1895,18 +1932,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2101,11 +2138,11 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="6" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
@@ -2137,11 +2174,11 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2155,7 +2192,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 20 heurs 19 minutes</v>
+        <v>1 jours 9 heurs 39 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2170,24 +2207,24 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>660</v>
+        <v>1380</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>1220</v>
+        <v>2020</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="61"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:15" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -2847,9 +2884,9 @@
       </c>
       <c r="B33" s="50"/>
       <c r="C33" s="51"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="56"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2873,147 +2910,245 @@
       <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="str">
+      <c r="A35" s="16">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
-        <v/>
-      </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
+        <v>22</v>
+      </c>
+      <c r="B35" s="50">
+        <v>45805</v>
+      </c>
+      <c r="C35" s="51">
+        <v>1</v>
+      </c>
       <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="36"/>
+      <c r="E35" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>63</v>
+      </c>
       <c r="G35" s="56"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="str">
+    <row r="36" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
-        <v/>
-      </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
+        <v>22</v>
+      </c>
+      <c r="B36" s="46">
+        <v>45806</v>
+      </c>
+      <c r="C36" s="47">
+        <v>2</v>
+      </c>
       <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="55"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="str">
+      <c r="E36" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
-        <v/>
-      </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="51"/>
+        <v>22</v>
+      </c>
+      <c r="B37" s="50">
+        <v>45806</v>
+      </c>
+      <c r="C37" s="51">
+        <v>2</v>
+      </c>
       <c r="D37" s="52"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="35"/>
+      <c r="E37" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>66</v>
+      </c>
       <c r="G37" s="56"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="str">
+    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
-        <v/>
-      </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="47"/>
+        <v>22</v>
+      </c>
+      <c r="B38" s="46">
+        <v>45806</v>
+      </c>
+      <c r="C38" s="47">
+        <v>2</v>
+      </c>
       <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="35"/>
+      <c r="E38" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>67</v>
+      </c>
       <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="str">
+      <c r="A39" s="16">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
-        <v/>
-      </c>
-      <c r="B39" s="50"/>
+        <v>22</v>
+      </c>
+      <c r="B39" s="50">
+        <v>45808</v>
+      </c>
       <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="35"/>
+      <c r="D39" s="52">
+        <v>10</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>68</v>
+      </c>
       <c r="G39" s="56"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="str">
+    <row r="40" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
-        <v/>
-      </c>
-      <c r="B40" s="46"/>
+        <v>22</v>
+      </c>
+      <c r="B40" s="46">
+        <v>45808</v>
+      </c>
       <c r="C40" s="47"/>
       <c r="D40" s="48"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="35"/>
+      <c r="E40" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>69</v>
+      </c>
       <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="str">
+      <c r="A41" s="16">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
-        <v/>
-      </c>
-      <c r="B41" s="50"/>
+        <v>22</v>
+      </c>
+      <c r="B41" s="50">
+        <v>45808</v>
+      </c>
       <c r="C41" s="51"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="56"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="str">
+      <c r="D41" s="52">
+        <v>20</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
-        <v/>
-      </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
+        <v>22</v>
+      </c>
+      <c r="B42" s="46">
+        <v>45808</v>
+      </c>
+      <c r="C42" s="47">
+        <v>2</v>
+      </c>
       <c r="D42" s="48"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="35"/>
+      <c r="E42" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>72</v>
+      </c>
       <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="str">
+      <c r="A43" s="16">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
-        <v/>
-      </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="51"/>
+        <v>22</v>
+      </c>
+      <c r="B43" s="50">
+        <v>45808</v>
+      </c>
+      <c r="C43" s="51">
+        <v>2</v>
+      </c>
       <c r="D43" s="52"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="35"/>
+      <c r="E43" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>73</v>
+      </c>
       <c r="G43" s="56"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="str">
+      <c r="A44" s="8">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
-        <v/>
-      </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
+        <v>22</v>
+      </c>
+      <c r="B44" s="46">
+        <v>45808</v>
+      </c>
+      <c r="C44" s="47">
+        <v>1</v>
+      </c>
       <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="35"/>
+      <c r="E44" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>74</v>
+      </c>
       <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="str">
+      <c r="A45" s="16">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
-        <v/>
-      </c>
-      <c r="B45" s="50"/>
+        <v>22</v>
+      </c>
+      <c r="B45" s="50">
+        <v>45808</v>
+      </c>
       <c r="C45" s="51"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="35"/>
+      <c r="D45" s="52">
+        <v>25</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>75</v>
+      </c>
       <c r="G45" s="56"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="str">
+      <c r="A46" s="8">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
-        <v/>
-      </c>
-      <c r="B46" s="46"/>
+        <v>22</v>
+      </c>
+      <c r="B46" s="46">
+        <v>45808</v>
+      </c>
       <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="35"/>
+      <c r="D46" s="48">
+        <v>25</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>36</v>
+      </c>
       <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -8854,29 +8989,29 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <conditionalFormatting sqref="E34:E532 E7:E32">
-    <cfRule type="expression" dxfId="16" priority="1">
+  <conditionalFormatting sqref="E7:E32 E34:E532">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8908,7 +9043,7 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="29" bestFit="1" customWidth="1"/>
@@ -8950,11 +9085,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>420</v>
+        <v>1140</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C5" s="41" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8962,7 +9097,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.53472222222222221</v>
+        <v>1.0486111111111112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8972,7 +9107,7 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C6" s="26" t="str">
         <f>'Journal de travail'!M10</f>
@@ -8980,7 +9115,7 @@
       </c>
       <c r="D6" s="33">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8990,7 +9125,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C7" s="27" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8998,7 +9133,7 @@
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9079,7 +9214,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.84722222222222221</v>
+        <v>1.4027777777777779</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9093,14 +9228,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9327,21 +9460,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9366,9 +9498,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Journal-de-Travail_NademoYosef.xlsx
+++ b/Documentation/Journal-de-Travail_NademoYosef.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdjdj\Documents\GitHub\Passion_lecture_Mobile\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C39EAD2-9637-424F-A671-D649C4535416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ABB677-2DF0-450F-941B-3F35FF4FA7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t xml:space="preserve"> tests manuel</t>
+  </si>
+  <si>
+    <t>BookTagsPage; BookTagsViewModel; TagItemViewModel; ApiService; LibraryPageViewModel; Insomnia; assosiation between books and tags</t>
   </si>
 </sst>
 </file>
@@ -1208,13 +1211,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0486111111111112</c:v>
+                  <c:v>1.1736111111111112</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>7.9861111111111105E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.9444444444444448E-2</c:v>
@@ -2139,7 +2142,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2192,7 +2195,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>1 jours 9 heurs 39 minutes</v>
+        <v>1 jours 13 heurs 4 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2207,15 +2210,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="22">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>1380</v>
+        <v>1560</v>
       </c>
       <c r="D4" s="22">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>2020</v>
+        <v>2225</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -3152,27 +3155,43 @@
       <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="str">
+      <c r="A47" s="16">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
-        <v/>
-      </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="51"/>
+        <v>22</v>
+      </c>
+      <c r="B47" s="50">
+        <v>45809</v>
+      </c>
+      <c r="C47" s="51">
+        <v>3</v>
+      </c>
       <c r="D47" s="52"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="35"/>
+      <c r="E47" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="35" t="s">
+        <v>76</v>
+      </c>
       <c r="G47" s="56"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="str">
+      <c r="A48" s="8">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
-        <v/>
-      </c>
-      <c r="B48" s="46"/>
+        <v>22</v>
+      </c>
+      <c r="B48" s="46">
+        <v>45809</v>
+      </c>
       <c r="C48" s="47"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="35"/>
+      <c r="D48" s="48">
+        <v>25</v>
+      </c>
+      <c r="E48" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="35" t="s">
+        <v>36</v>
+      </c>
       <c r="G48" s="55"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -9085,7 +9104,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>1140</v>
+        <v>1320</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -9097,7 +9116,7 @@
       </c>
       <c r="D5" s="33">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>1.0486111111111112</v>
+        <v>1.1736111111111112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9125,7 +9144,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C7" s="27" t="str">
         <f>'Journal de travail'!M11</f>
@@ -9133,7 +9152,7 @@
       </c>
       <c r="D7" s="33">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>7.9861111111111105E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9214,7 +9233,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>1.4027777777777779</v>
+        <v>1.5451388888888891</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9228,12 +9247,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9460,20 +9481,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9498,12 +9520,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>